--- a/reviseddata5xTog.xlsx
+++ b/reviseddata5xTog.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="980">
   <si>
     <t>Lbsnr</t>
   </si>
@@ -1333,6 +1333,1611 @@
   </si>
   <si>
     <t>FA</t>
+  </si>
+  <si>
+    <t>Km</t>
+  </si>
+  <si>
+    <t>TotalKm</t>
+  </si>
+  <si>
+    <t>BinaryC</t>
+  </si>
+  <si>
+    <t>Tr</t>
+  </si>
+  <si>
+    <t>Or</t>
+  </si>
+  <si>
+    <t>Lbsnr</t>
+  </si>
+  <si>
+    <t>Litra</t>
+  </si>
+  <si>
+    <t>ERF</t>
+  </si>
+  <si>
+    <t>AfgangDato</t>
+  </si>
+  <si>
+    <t>Tognr</t>
+  </si>
+  <si>
+    <t>FraStation</t>
+  </si>
+  <si>
+    <t>RO</t>
+  </si>
+  <si>
+    <t>HG</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>HGL</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>HGL</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>HGL</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>HGL</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>HG</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>HGL</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>HG</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>CPH</t>
+  </si>
+  <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>CPH</t>
+  </si>
+  <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>CPH</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>HGL</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>HGL</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>KD</t>
+  </si>
+  <si>
+    <t>HGL</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>HGL</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>KK</t>
+  </si>
+  <si>
+    <t>RO</t>
+  </si>
+  <si>
+    <t>HG</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>HGL</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>HGL</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>HGL</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>HGL</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>SDB</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>CPH</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>HGL</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>HGL</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>HGL</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>CPH</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>SDB</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>CPH</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>SDB</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>HGL</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>HGL</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>HG</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>HGL</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>HGL</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>HGL</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>HGL</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>HGL</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>HGL</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>HGL</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>HGL</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>CPH</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>HGL</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>HGL</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>HGL</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>HGL</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>HGL</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>SDB</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>CPH</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>HGL</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>SDB</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>CPH</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>CPH</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>SDB</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>CPH</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>SDB</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>CPH</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>SDB</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>CPH</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>SDB</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>CPH</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>SDB</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>CPH</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>HG</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>HG</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>CPH</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>CPH</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>SDB</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>CPH</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>CPH</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>SDB</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>CPH</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>Afgangstid</t>
+  </si>
+  <si>
+    <t>Ankomsttid</t>
+  </si>
+  <si>
+    <t>StopTime</t>
+  </si>
+  <si>
+    <t>TilStation</t>
+  </si>
+  <si>
+    <t>HG</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>HGL</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>HGL</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>HGL</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>HGL</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>HG</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>HGL</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>HG</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>CPH</t>
+  </si>
+  <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>CPH</t>
+  </si>
+  <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>CPH</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>HGL</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>HGL</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>KD</t>
+  </si>
+  <si>
+    <t>HGL</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>HGL</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>KK</t>
+  </si>
+  <si>
+    <t>RO</t>
+  </si>
+  <si>
+    <t>HG</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>HGL</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>HGL</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>HGL</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>HGL</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>SDB</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>CPH</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>HGL</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>HGL</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>HGL</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>HGL</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>CPH</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>SDB</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>CPH</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>SDB</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>HGL</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>HGL</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>HG</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>HGL</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>HGL</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>HGL</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>HGL</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>HGL</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>HGL</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>HGL</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>HGL</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>CPH</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>HGL</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>HGL</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>HGL</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>HGL</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>HGL</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>SDB</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>CPH</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>HGL</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>SDB</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>CPH</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>CPH</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>SDB</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>CPH</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>SDB</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>CPH</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>SDB</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>CPH</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>SDB</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>CPH</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>SDB</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>CPH</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>HG</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>HG</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>CPH</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>CPH</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>SDB</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>CPH</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>CPH</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>SDB</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>CPH</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>SDB</t>
   </si>
   <si>
     <t>Km</t>
@@ -1393,7 +2998,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N217"/>
+  <dimension ref="A1:N262"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.37890625" customWidth="true"/>
@@ -1414,46 +3019,46 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>445</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1</v>
+        <v>446</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>3</v>
+        <v>448</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>4</v>
+        <v>449</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>5</v>
+        <v>450</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>221</v>
+        <v>711</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>222</v>
+        <v>712</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>223</v>
+        <v>713</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>224</v>
+        <v>714</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>440</v>
+        <v>975</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>441</v>
+        <v>976</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>442</v>
+        <v>977</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>443</v>
+        <v>978</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>444</v>
+        <v>979</v>
       </c>
     </row>
     <row r="2">
@@ -1461,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C2" s="1">
         <v>44990</v>
@@ -1470,7 +3075,7 @@
         <v>4368</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>6</v>
+        <v>451</v>
       </c>
       <c r="F2" s="1">
         <v>0.94305555555555554</v>
@@ -1482,7 +3087,7 @@
         <v>427</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>225</v>
+        <v>715</v>
       </c>
       <c r="J2" s="0">
         <v>77.5</v>
@@ -1505,7 +3110,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C3" s="1">
         <v>44991</v>
@@ -1514,7 +3119,7 @@
         <v>3429</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>7</v>
+        <v>452</v>
       </c>
       <c r="F3" s="1">
         <v>0.29930555555555555</v>
@@ -1526,7 +3131,7 @@
         <v>10</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>226</v>
+        <v>716</v>
       </c>
       <c r="J3" s="0">
         <v>46.200000000000003</v>
@@ -1549,7 +3154,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C4" s="1">
         <v>44991</v>
@@ -1558,7 +3163,7 @@
         <v>129</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>8</v>
+        <v>453</v>
       </c>
       <c r="F4" s="1">
         <v>0.33680555555555558</v>
@@ -1570,7 +3175,7 @@
         <v>47</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>227</v>
+        <v>717</v>
       </c>
       <c r="J4" s="0">
         <v>218.5</v>
@@ -1593,7 +3198,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C5" s="1">
         <v>44991</v>
@@ -1602,7 +3207,7 @@
         <v>128</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>9</v>
+        <v>454</v>
       </c>
       <c r="F5" s="1">
         <v>0.45347222222222222</v>
@@ -1614,7 +3219,7 @@
         <v>59</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>228</v>
+        <v>718</v>
       </c>
       <c r="J5" s="0">
         <v>223.90000000000001</v>
@@ -1637,7 +3242,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C6" s="1">
         <v>44991</v>
@@ -1646,7 +3251,7 @@
         <v>855</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>10</v>
+        <v>455</v>
       </c>
       <c r="F6" s="1">
         <v>0.59097222222222223</v>
@@ -1658,7 +3263,7 @@
         <v>52</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>229</v>
+        <v>719</v>
       </c>
       <c r="J6" s="0">
         <v>165.59999999999999</v>
@@ -1681,7 +3286,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C7" s="1">
         <v>44991</v>
@@ -1690,7 +3295,7 @@
         <v>850</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>11</v>
+        <v>456</v>
       </c>
       <c r="F7" s="1">
         <v>0.7055555555555556</v>
@@ -1702,7 +3307,7 @@
         <v>83</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>230</v>
+        <v>720</v>
       </c>
       <c r="J7" s="0">
         <v>165.80000000000001</v>
@@ -1725,7 +3330,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C8" s="1">
         <v>44991</v>
@@ -1734,7 +3339,7 @@
         <v>879</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>12</v>
+        <v>457</v>
       </c>
       <c r="F8" s="1">
         <v>0.84097222222222223</v>
@@ -1746,7 +3351,7 @@
         <v>472</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>231</v>
+        <v>721</v>
       </c>
       <c r="J8" s="0">
         <v>165.59999999999999</v>
@@ -1769,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C9" s="1">
         <v>44992</v>
@@ -1778,7 +3383,7 @@
         <v>806</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>13</v>
+        <v>458</v>
       </c>
       <c r="F9" s="1">
         <v>0.24722222222222223</v>
@@ -1790,7 +3395,7 @@
         <v>323</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>232</v>
+        <v>722</v>
       </c>
       <c r="J9" s="0">
         <v>165.80000000000001</v>
@@ -1813,7 +3418,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C10" s="1">
         <v>44992</v>
@@ -1822,7 +3427,7 @@
         <v>851</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>14</v>
+        <v>459</v>
       </c>
       <c r="F10" s="1">
         <v>0.5493055555555556</v>
@@ -1834,7 +3439,7 @@
         <v>9</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>233</v>
+        <v>723</v>
       </c>
       <c r="J10" s="0">
         <v>165.59999999999999</v>
@@ -1857,7 +3462,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C11" s="1">
         <v>44992</v>
@@ -1866,7 +3471,7 @@
         <v>851</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>15</v>
+        <v>460</v>
       </c>
       <c r="F11" s="1">
         <v>0.63402777777777775</v>
@@ -1878,7 +3483,7 @@
         <v>55</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>234</v>
+        <v>724</v>
       </c>
       <c r="J11" s="0">
         <v>142.30000000000001</v>
@@ -1901,7 +3506,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C12" s="1">
         <v>44992</v>
@@ -1910,7 +3515,7 @@
         <v>858</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>16</v>
+        <v>461</v>
       </c>
       <c r="F12" s="1">
         <v>0.7270833333333333</v>
@@ -1922,7 +3527,7 @@
         <v>563</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>235</v>
+        <v>725</v>
       </c>
       <c r="J12" s="0">
         <v>308.10000000000002</v>
@@ -1945,7 +3550,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C13" s="1">
         <v>44993</v>
@@ -1954,7 +3559,7 @@
         <v>823</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>17</v>
+        <v>462</v>
       </c>
       <c r="F13" s="1">
         <v>0.25763888888888886</v>
@@ -1966,7 +3571,7 @@
         <v>44</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>236</v>
+        <v>726</v>
       </c>
       <c r="J13" s="0">
         <v>165.59999999999999</v>
@@ -1989,7 +3594,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C14" s="1">
         <v>44993</v>
@@ -1998,7 +3603,7 @@
         <v>4725</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>18</v>
+        <v>463</v>
       </c>
       <c r="F14" s="1">
         <v>0.36666666666666664</v>
@@ -2010,7 +3615,7 @@
         <v>60</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>237</v>
+        <v>727</v>
       </c>
       <c r="J14" s="0">
         <v>60.299999999999997</v>
@@ -2033,7 +3638,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C15" s="1">
         <v>44993</v>
@@ -2042,7 +3647,7 @@
         <v>2728</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>19</v>
+        <v>464</v>
       </c>
       <c r="F15" s="1">
         <v>0.4375</v>
@@ -2054,7 +3659,7 @@
         <v>20</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>238</v>
+        <v>728</v>
       </c>
       <c r="J15" s="0">
         <v>60.299999999999997</v>
@@ -2077,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C16" s="1">
         <v>44993</v>
@@ -2086,7 +3691,7 @@
         <v>2737</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>20</v>
+        <v>465</v>
       </c>
       <c r="F16" s="1">
         <v>0.4861111111111111</v>
@@ -2098,7 +3703,7 @@
         <v>56</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>239</v>
+        <v>729</v>
       </c>
       <c r="J16" s="0">
         <v>60.299999999999997</v>
@@ -2121,7 +3726,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C17" s="1">
         <v>44993</v>
@@ -2130,7 +3735,7 @@
         <v>4740</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>21</v>
+        <v>466</v>
       </c>
       <c r="F17" s="1">
         <v>0.5625</v>
@@ -2142,7 +3747,7 @@
         <v>40</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>240</v>
+        <v>730</v>
       </c>
       <c r="J17" s="0">
         <v>60.299999999999997</v>
@@ -2165,7 +3770,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C18" s="1">
         <v>44993</v>
@@ -2174,7 +3779,7 @@
         <v>842</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>22</v>
+        <v>467</v>
       </c>
       <c r="F18" s="1">
         <v>0.62222222222222223</v>
@@ -2186,7 +3791,7 @@
         <v>4</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>241</v>
+        <v>731</v>
       </c>
       <c r="J18" s="0">
         <v>160.59999999999999</v>
@@ -2209,7 +3814,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C19" s="1">
         <v>44993</v>
@@ -2218,7 +3823,7 @@
         <v>3442</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>23</v>
+        <v>468</v>
       </c>
       <c r="F19" s="1">
         <v>0.69097222222222221</v>
@@ -2230,7 +3835,7 @@
         <v>22</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>242</v>
+        <v>732</v>
       </c>
       <c r="J19" s="0">
         <v>46.200000000000003</v>
@@ -2253,7 +3858,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C20" s="1">
         <v>44993</v>
@@ -2262,7 +3867,7 @@
         <v>3471</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>24</v>
+        <v>469</v>
       </c>
       <c r="F20" s="1">
         <v>0.7368055555555556</v>
@@ -2274,7 +3879,7 @@
         <v>4</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>243</v>
+        <v>733</v>
       </c>
       <c r="J20" s="0">
         <v>46.200000000000003</v>
@@ -2297,7 +3902,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C21" s="1">
         <v>44993</v>
@@ -2306,7 +3911,7 @@
         <v>871</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>25</v>
+        <v>470</v>
       </c>
       <c r="F21" s="1">
         <v>0.77013888888888893</v>
@@ -2318,7 +3923,7 @@
         <v>592</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>244</v>
+        <v>734</v>
       </c>
       <c r="J21" s="0">
         <v>160.40000000000001</v>
@@ -2341,7 +3946,7 @@
         <v>1</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C22" s="1">
         <v>44994</v>
@@ -2350,7 +3955,7 @@
         <v>806</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>26</v>
+        <v>471</v>
       </c>
       <c r="F22" s="1">
         <v>0.24722222222222223</v>
@@ -2362,7 +3967,7 @@
         <v>83</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>245</v>
+        <v>735</v>
       </c>
       <c r="J22" s="0">
         <v>165.80000000000001</v>
@@ -2385,7 +3990,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C23" s="1">
         <v>44994</v>
@@ -2394,7 +3999,7 @@
         <v>835</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>27</v>
+        <v>472</v>
       </c>
       <c r="F23" s="1">
         <v>0.38263888888888886</v>
@@ -2406,7 +4011,7 @@
         <v>55</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>246</v>
+        <v>736</v>
       </c>
       <c r="J23" s="0">
         <v>307.89999999999998</v>
@@ -2429,7 +4034,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C24" s="1">
         <v>44994</v>
@@ -2438,7 +4043,7 @@
         <v>842</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>28</v>
+        <v>473</v>
       </c>
       <c r="F24" s="1">
         <v>0.56041666666666667</v>
@@ -2450,7 +4055,7 @@
         <v>7.5</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>247</v>
+        <v>737</v>
       </c>
       <c r="J24" s="0">
         <v>142.30000000000001</v>
@@ -2473,7 +4078,7 @@
         <v>1</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C25" s="1">
         <v>44994</v>
@@ -2482,7 +4087,7 @@
         <v>842</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>29</v>
+        <v>474</v>
       </c>
       <c r="F25" s="1">
         <v>0.62222222222222223</v>
@@ -2494,7 +4099,7 @@
         <v>4</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>248</v>
+        <v>738</v>
       </c>
       <c r="J25" s="0">
         <v>160.59999999999999</v>
@@ -2517,7 +4122,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C26" s="1">
         <v>44994</v>
@@ -2526,7 +4131,7 @@
         <v>3442</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>30</v>
+        <v>475</v>
       </c>
       <c r="F26" s="1">
         <v>0.69097222222222221</v>
@@ -2538,7 +4143,7 @@
         <v>22</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>249</v>
+        <v>739</v>
       </c>
       <c r="J26" s="0">
         <v>46.200000000000003</v>
@@ -2561,7 +4166,7 @@
         <v>1</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C27" s="1">
         <v>44994</v>
@@ -2570,7 +4175,7 @@
         <v>3471</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>31</v>
+        <v>476</v>
       </c>
       <c r="F27" s="1">
         <v>0.7368055555555556</v>
@@ -2582,7 +4187,7 @@
         <v>4</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>250</v>
+        <v>740</v>
       </c>
       <c r="J27" s="0">
         <v>46.200000000000003</v>
@@ -2605,7 +4210,7 @@
         <v>1</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C28" s="1">
         <v>44994</v>
@@ -2614,7 +4219,7 @@
         <v>871</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>32</v>
+        <v>477</v>
       </c>
       <c r="F28" s="1">
         <v>0.77013888888888893</v>
@@ -2626,7 +4231,7 @@
         <v>9</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>251</v>
+        <v>741</v>
       </c>
       <c r="J28" s="0">
         <v>160.40000000000001</v>
@@ -2649,7 +4254,7 @@
         <v>1</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C29" s="1">
         <v>44994</v>
@@ -2658,7 +4263,7 @@
         <v>871</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>33</v>
+        <v>478</v>
       </c>
       <c r="F29" s="1">
         <v>0.84236111111111112</v>
@@ -2670,7 +4275,7 @@
         <v>9</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>252</v>
+        <v>742</v>
       </c>
       <c r="J29" s="0">
         <v>142.30000000000001</v>
@@ -2693,7 +4298,7 @@
         <v>1</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C30" s="1">
         <v>44994</v>
@@ -2702,7 +4307,7 @@
         <v>3379</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>34</v>
+        <v>479</v>
       </c>
       <c r="F30" s="1">
         <v>0.90347222222222223</v>
@@ -2714,7 +4319,7 @@
         <v>5</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>253</v>
+        <v>743</v>
       </c>
       <c r="J30" s="0">
         <v>88.5</v>
@@ -2737,7 +4342,7 @@
         <v>1</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C31" s="1">
         <v>44994</v>
@@ -2746,7 +4351,7 @@
         <v>476</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>35</v>
+        <v>480</v>
       </c>
       <c r="F31" s="1">
         <v>0.95347222222222228</v>
@@ -2758,7 +4363,7 @@
         <v>11</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>254</v>
+        <v>744</v>
       </c>
       <c r="J31" s="0">
         <v>220.90000000000001</v>
@@ -2781,7 +4386,7 @@
         <v>1</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C32" s="1">
         <v>44995</v>
@@ -2790,7 +4395,7 @@
         <v>476</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>36</v>
+        <v>481</v>
       </c>
       <c r="F32" s="1">
         <v>0.049305555555555554</v>
@@ -2802,7 +4407,7 @@
         <v>163</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>255</v>
+        <v>745</v>
       </c>
       <c r="J32" s="0">
         <v>11.800000000000001</v>
@@ -2825,7 +4430,7 @@
         <v>1</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C33" s="1">
         <v>44995</v>
@@ -2834,7 +4439,7 @@
         <v>9115</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>37</v>
+        <v>482</v>
       </c>
       <c r="F33" s="1">
         <v>0.17152777777777778</v>
@@ -2846,7 +4451,7 @@
         <v>15</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>256</v>
+        <v>746</v>
       </c>
       <c r="J33" s="0">
         <v>99.5</v>
@@ -2869,7 +4474,7 @@
         <v>1</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C34" s="1">
         <v>44995</v>
@@ -2878,7 +4483,7 @@
         <v>2000</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>38</v>
+        <v>483</v>
       </c>
       <c r="F34" s="1">
         <v>0.21736111111111112</v>
@@ -2890,7 +4495,7 @@
         <v>26</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>257</v>
+        <v>747</v>
       </c>
       <c r="J34" s="0">
         <v>99.5</v>
@@ -2913,7 +4518,7 @@
         <v>1</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C35" s="1">
         <v>44995</v>
@@ -2922,7 +4527,7 @@
         <v>2025</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>39</v>
+        <v>484</v>
       </c>
       <c r="F35" s="1">
         <v>0.27916666666666667</v>
@@ -2934,7 +4539,7 @@
         <v>27</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>258</v>
+        <v>748</v>
       </c>
       <c r="J35" s="0">
         <v>99.5</v>
@@ -2957,7 +4562,7 @@
         <v>1</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C36" s="1">
         <v>44995</v>
@@ -2966,7 +4571,7 @@
         <v>2012</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>40</v>
+        <v>485</v>
       </c>
       <c r="F36" s="1">
         <v>0.34236111111111112</v>
@@ -2978,7 +4583,7 @@
         <v>50</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>259</v>
+        <v>749</v>
       </c>
       <c r="J36" s="0">
         <v>99.5</v>
@@ -3001,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C37" s="1">
         <v>44995</v>
@@ -3010,7 +4615,7 @@
         <v>9318</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>41</v>
+        <v>486</v>
       </c>
       <c r="F37" s="1">
         <v>0.42083333333333334</v>
@@ -3022,7 +4627,7 @@
         <v>70</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>260</v>
+        <v>750</v>
       </c>
       <c r="J37" s="0">
         <v>11.800000000000001</v>
@@ -3045,7 +4650,7 @@
         <v>1</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C38" s="1">
         <v>44995</v>
@@ -3054,7 +4659,7 @@
         <v>843</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>42</v>
+        <v>487</v>
       </c>
       <c r="F38" s="1">
         <v>0.47847222222222224</v>
@@ -3066,7 +4671,7 @@
         <v>55</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>261</v>
+        <v>751</v>
       </c>
       <c r="J38" s="0">
         <v>302.69999999999999</v>
@@ -3089,7 +4694,7 @@
         <v>1</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C39" s="1">
         <v>44995</v>
@@ -3098,7 +4703,7 @@
         <v>850</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>43</v>
+        <v>488</v>
       </c>
       <c r="F39" s="1">
         <v>0.64375000000000004</v>
@@ -3110,7 +4715,7 @@
         <v>7.5</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>262</v>
+        <v>752</v>
       </c>
       <c r="J39" s="0">
         <v>142.30000000000001</v>
@@ -3133,7 +4738,7 @@
         <v>1</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C40" s="1">
         <v>44995</v>
@@ -3142,7 +4747,7 @@
         <v>850</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>44</v>
+        <v>489</v>
       </c>
       <c r="F40" s="1">
         <v>0.7055555555555556</v>
@@ -3154,7 +4759,7 @@
         <v>743</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>263</v>
+        <v>753</v>
       </c>
       <c r="J40" s="0">
         <v>165.80000000000001</v>
@@ -3177,7 +4782,7 @@
         <v>1</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C41" s="1">
         <v>44996</v>
@@ -3186,7 +4791,7 @@
         <v>827</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>45</v>
+        <v>490</v>
       </c>
       <c r="F41" s="1">
         <v>0.29930555555555555</v>
@@ -3198,7 +4803,7 @@
         <v>55</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>264</v>
+        <v>754</v>
       </c>
       <c r="J41" s="0">
         <v>307.89999999999998</v>
@@ -3221,7 +4826,7 @@
         <v>1</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C42" s="1">
         <v>44996</v>
@@ -3230,7 +4835,7 @@
         <v>834</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>46</v>
+        <v>491</v>
       </c>
       <c r="F42" s="1">
         <v>0.47708333333333336</v>
@@ -3242,7 +4847,7 @@
         <v>7.5</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>265</v>
+        <v>755</v>
       </c>
       <c r="J42" s="0">
         <v>142.30000000000001</v>
@@ -3265,7 +4870,7 @@
         <v>1</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C43" s="1">
         <v>44996</v>
@@ -3274,7 +4879,7 @@
         <v>834</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>47</v>
+        <v>492</v>
       </c>
       <c r="F43" s="1">
         <v>0.53888888888888886</v>
@@ -3286,7 +4891,7 @@
         <v>83</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>266</v>
+        <v>756</v>
       </c>
       <c r="J43" s="0">
         <v>165.80000000000001</v>
@@ -3309,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C44" s="1">
         <v>44996</v>
@@ -3318,7 +4923,7 @@
         <v>863</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>48</v>
+        <v>493</v>
       </c>
       <c r="F44" s="1">
         <v>0.6743055555555556</v>
@@ -3330,7 +4935,7 @@
         <v>9</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>267</v>
+        <v>757</v>
       </c>
       <c r="J44" s="0">
         <v>165.59999999999999</v>
@@ -3353,7 +4958,7 @@
         <v>1</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C45" s="1">
         <v>44996</v>
@@ -3362,7 +4967,7 @@
         <v>863</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>49</v>
+        <v>494</v>
       </c>
       <c r="F45" s="1">
         <v>0.75902777777777775</v>
@@ -3374,7 +4979,7 @@
         <v>55</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>268</v>
+        <v>758</v>
       </c>
       <c r="J45" s="0">
         <v>142.30000000000001</v>
@@ -3397,7 +5002,7 @@
         <v>1</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C46" s="1">
         <v>44996</v>
@@ -3406,7 +5011,7 @@
         <v>870</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>50</v>
+        <v>495</v>
       </c>
       <c r="F46" s="1">
         <v>0.8520833333333333</v>
@@ -3418,7 +5023,7 @@
         <v>56.5</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>269</v>
+        <v>759</v>
       </c>
       <c r="J46" s="0">
         <v>142.30000000000001</v>
@@ -3441,7 +5046,7 @@
         <v>1</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C47" s="1">
         <v>44996</v>
@@ -3450,7 +5055,7 @@
         <v>4781</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>51</v>
+        <v>496</v>
       </c>
       <c r="F47" s="1">
         <v>0.94791666666666663</v>
@@ -3462,7 +5067,7 @@
         <v>429</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>270</v>
+        <v>760</v>
       </c>
       <c r="J47" s="0">
         <v>60.299999999999997</v>
@@ -3485,7 +5090,7 @@
         <v>1</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C48" s="1">
         <v>44997</v>
@@ -3494,7 +5099,7 @@
         <v>7015</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>52</v>
+        <v>497</v>
       </c>
       <c r="F48" s="1">
         <v>0.27708333333333335</v>
@@ -3506,7 +5111,7 @@
         <v>18</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>271</v>
+        <v>761</v>
       </c>
       <c r="J48" s="0">
         <v>19.899999999999999</v>
@@ -3529,7 +5134,7 @@
         <v>1</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C49" s="1">
         <v>44997</v>
@@ -3538,7 +5143,7 @@
         <v>814</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>53</v>
+        <v>498</v>
       </c>
       <c r="F49" s="1">
         <v>0.29791666666666666</v>
@@ -3550,7 +5155,7 @@
         <v>83</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>272</v>
+        <v>762</v>
       </c>
       <c r="J49" s="0">
         <v>239.5</v>
@@ -3573,7 +5178,7 @@
         <v>1</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C50" s="1">
         <v>44997</v>
@@ -3582,7 +5187,7 @@
         <v>843</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>54</v>
+        <v>499</v>
       </c>
       <c r="F50" s="1">
         <v>0.46597222222222223</v>
@@ -3594,7 +5199,7 @@
         <v>52</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>273</v>
+        <v>763</v>
       </c>
       <c r="J50" s="0">
         <v>165.59999999999999</v>
@@ -3617,7 +5222,7 @@
         <v>1</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C51" s="1">
         <v>44997</v>
@@ -3626,7 +5231,7 @@
         <v>838</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>55</v>
+        <v>500</v>
       </c>
       <c r="F51" s="1">
         <v>0.5805555555555556</v>
@@ -3638,7 +5243,7 @@
         <v>83</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>274</v>
+        <v>764</v>
       </c>
       <c r="J51" s="0">
         <v>165.80000000000001</v>
@@ -3661,7 +5266,7 @@
         <v>1</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C52" s="1">
         <v>44997</v>
@@ -3670,7 +5275,7 @@
         <v>867</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>56</v>
+        <v>501</v>
       </c>
       <c r="F52" s="1">
         <v>0.71597222222222223</v>
@@ -3682,7 +5287,7 @@
         <v>52</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>275</v>
+        <v>765</v>
       </c>
       <c r="J52" s="0">
         <v>165.59999999999999</v>
@@ -3705,7 +5310,7 @@
         <v>1</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C53" s="1">
         <v>44997</v>
@@ -3714,7 +5319,7 @@
         <v>862</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>57</v>
+        <v>502</v>
       </c>
       <c r="F53" s="1">
         <v>0.8305555555555556</v>
@@ -3726,7 +5331,7 @@
         <v>17</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>276</v>
+        <v>766</v>
       </c>
       <c r="J53" s="0">
         <v>163.69999999999999</v>
@@ -3749,7 +5354,7 @@
         <v>1</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C54" s="1">
         <v>44997</v>
@@ -3758,7 +5363,7 @@
         <v>2285</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>58</v>
+        <v>503</v>
       </c>
       <c r="F54" s="1">
         <v>0.91527777777777775</v>
@@ -3770,7 +5375,7 @@
         <v>8</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>277</v>
+        <v>767</v>
       </c>
       <c r="J54" s="0">
         <v>34.399999999999999</v>
@@ -3793,7 +5398,7 @@
         <v>1</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C55" s="1">
         <v>44997</v>
@@ -3802,7 +5407,7 @@
         <v>4368</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>59</v>
+        <v>504</v>
       </c>
       <c r="F55" s="1">
         <v>0.94305555555555554</v>
@@ -3811,10 +5416,10 @@
         <v>0.0027777777777777779</v>
       </c>
       <c r="H55" s="0">
-        <v>1354</v>
+        <v>0</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>278</v>
+        <v>768</v>
       </c>
       <c r="J55" s="0">
         <v>77.5</v>
@@ -3837,7 +5442,7 @@
         <v>2</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C56" s="1">
         <v>44990</v>
@@ -3846,7 +5451,7 @@
         <v>4368</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>59</v>
+        <v>504</v>
       </c>
       <c r="F56" s="1">
         <v>0.94305555555555554</v>
@@ -3858,7 +5463,7 @@
         <v>427</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>278</v>
+        <v>768</v>
       </c>
       <c r="J56" s="0">
         <v>77.5</v>
@@ -3881,7 +5486,7 @@
         <v>2</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C57" s="1">
         <v>44991</v>
@@ -3890,7 +5495,7 @@
         <v>3429</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>60</v>
+        <v>505</v>
       </c>
       <c r="F57" s="1">
         <v>0.29930555555555555</v>
@@ -3902,7 +5507,7 @@
         <v>10</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>279</v>
+        <v>769</v>
       </c>
       <c r="J57" s="0">
         <v>46.200000000000003</v>
@@ -3925,7 +5530,7 @@
         <v>2</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C58" s="1">
         <v>44991</v>
@@ -3934,7 +5539,7 @@
         <v>129</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>61</v>
+        <v>506</v>
       </c>
       <c r="F58" s="1">
         <v>0.33680555555555558</v>
@@ -3946,7 +5551,7 @@
         <v>144</v>
       </c>
       <c r="I58" s="0" t="s">
-        <v>280</v>
+        <v>770</v>
       </c>
       <c r="J58" s="0">
         <v>218.5</v>
@@ -3969,7 +5574,7 @@
         <v>2</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C59" s="1">
         <v>44991</v>
@@ -3978,7 +5583,7 @@
         <v>2736</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>62</v>
+        <v>507</v>
       </c>
       <c r="F59" s="1">
         <v>0.52083333333333337</v>
@@ -3990,7 +5595,7 @@
         <v>23</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>281</v>
+        <v>771</v>
       </c>
       <c r="J59" s="0">
         <v>60.299999999999997</v>
@@ -4013,7 +5618,7 @@
         <v>2</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C60" s="1">
         <v>44991</v>
@@ -4022,7 +5627,7 @@
         <v>2745</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>63</v>
+        <v>508</v>
       </c>
       <c r="F60" s="1">
         <v>0.57152777777777775</v>
@@ -4034,7 +5639,7 @@
         <v>54</v>
       </c>
       <c r="I60" s="0" t="s">
-        <v>282</v>
+        <v>772</v>
       </c>
       <c r="J60" s="0">
         <v>60.299999999999997</v>
@@ -4057,7 +5662,7 @@
         <v>2</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C61" s="1">
         <v>44991</v>
@@ -4066,7 +5671,7 @@
         <v>4748</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>64</v>
+        <v>509</v>
       </c>
       <c r="F61" s="1">
         <v>0.64375000000000004</v>
@@ -4078,7 +5683,7 @@
         <v>35</v>
       </c>
       <c r="I61" s="0" t="s">
-        <v>283</v>
+        <v>773</v>
       </c>
       <c r="J61" s="0">
         <v>60.299999999999997</v>
@@ -4101,7 +5706,7 @@
         <v>2</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C62" s="1">
         <v>44991</v>
@@ -4110,7 +5715,7 @@
         <v>4757</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>65</v>
+        <v>510</v>
       </c>
       <c r="F62" s="1">
         <v>0.69999999999999996</v>
@@ -4122,7 +5727,7 @@
         <v>60</v>
       </c>
       <c r="I62" s="0" t="s">
-        <v>284</v>
+        <v>774</v>
       </c>
       <c r="J62" s="0">
         <v>60.299999999999997</v>
@@ -4145,7 +5750,7 @@
         <v>2</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C63" s="1">
         <v>44991</v>
@@ -4154,7 +5759,7 @@
         <v>2760</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>66</v>
+        <v>511</v>
       </c>
       <c r="F63" s="1">
         <v>0.77083333333333337</v>
@@ -4166,7 +5771,7 @@
         <v>20</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>285</v>
+        <v>775</v>
       </c>
       <c r="J63" s="0">
         <v>60.299999999999997</v>
@@ -4189,7 +5794,7 @@
         <v>2</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C64" s="1">
         <v>44991</v>
@@ -4198,7 +5803,7 @@
         <v>2769</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>67</v>
+        <v>512</v>
       </c>
       <c r="F64" s="1">
         <v>0.81944444444444442</v>
@@ -4210,7 +5815,7 @@
         <v>60</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>286</v>
+        <v>776</v>
       </c>
       <c r="J64" s="0">
         <v>60.299999999999997</v>
@@ -4233,7 +5838,7 @@
         <v>2</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C65" s="1">
         <v>44991</v>
@@ -4242,7 +5847,7 @@
         <v>4772</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>68</v>
+        <v>513</v>
       </c>
       <c r="F65" s="1">
         <v>0.89583333333333337</v>
@@ -4254,7 +5859,7 @@
         <v>32</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>287</v>
+        <v>777</v>
       </c>
       <c r="J65" s="0">
         <v>60.299999999999997</v>
@@ -4277,7 +5882,7 @@
         <v>2</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C66" s="1">
         <v>44991</v>
@@ -4286,7 +5891,7 @@
         <v>4781</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>69</v>
+        <v>514</v>
       </c>
       <c r="F66" s="1">
         <v>0.94791666666666663</v>
@@ -4298,7 +5903,7 @@
         <v>343</v>
       </c>
       <c r="I66" s="0" t="s">
-        <v>288</v>
+        <v>778</v>
       </c>
       <c r="J66" s="0">
         <v>60.299999999999997</v>
@@ -4321,7 +5926,7 @@
         <v>2</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C67" s="1">
         <v>44992</v>
@@ -4330,7 +5935,7 @@
         <v>3306</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>70</v>
+        <v>515</v>
       </c>
       <c r="F67" s="1">
         <v>0.21736111111111112</v>
@@ -4342,7 +5947,7 @@
         <v>9</v>
       </c>
       <c r="I67" s="0" t="s">
-        <v>289</v>
+        <v>779</v>
       </c>
       <c r="J67" s="0">
         <v>88.5</v>
@@ -4365,7 +5970,7 @@
         <v>2</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C68" s="1">
         <v>44992</v>
@@ -4374,7 +5979,7 @@
         <v>814</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>71</v>
+        <v>516</v>
       </c>
       <c r="F68" s="1">
         <v>0.26874999999999999</v>
@@ -4386,7 +5991,7 @@
         <v>7.5</v>
       </c>
       <c r="I68" s="0" t="s">
-        <v>290</v>
+        <v>780</v>
       </c>
       <c r="J68" s="0">
         <v>142.30000000000001</v>
@@ -4409,7 +6014,7 @@
         <v>2</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C69" s="1">
         <v>44992</v>
@@ -4418,7 +6023,7 @@
         <v>814</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>72</v>
+        <v>517</v>
       </c>
       <c r="F69" s="1">
         <v>0.33055555555555555</v>
@@ -4430,7 +6035,7 @@
         <v>83</v>
       </c>
       <c r="I69" s="0" t="s">
-        <v>291</v>
+        <v>781</v>
       </c>
       <c r="J69" s="0">
         <v>165.80000000000001</v>
@@ -4453,7 +6058,7 @@
         <v>2</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C70" s="1">
         <v>44992</v>
@@ -4462,7 +6067,7 @@
         <v>843</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>73</v>
+        <v>518</v>
       </c>
       <c r="F70" s="1">
         <v>0.46597222222222223</v>
@@ -4474,7 +6079,7 @@
         <v>9</v>
       </c>
       <c r="I70" s="0" t="s">
-        <v>292</v>
+        <v>782</v>
       </c>
       <c r="J70" s="0">
         <v>165.59999999999999</v>
@@ -4497,7 +6102,7 @@
         <v>2</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C71" s="1">
         <v>44992</v>
@@ -4506,7 +6111,7 @@
         <v>843</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>74</v>
+        <v>519</v>
       </c>
       <c r="F71" s="1">
         <v>0.55069444444444449</v>
@@ -4518,7 +6123,7 @@
         <v>55</v>
       </c>
       <c r="I71" s="0" t="s">
-        <v>293</v>
+        <v>783</v>
       </c>
       <c r="J71" s="0">
         <v>142.30000000000001</v>
@@ -4541,7 +6146,7 @@
         <v>2</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C72" s="1">
         <v>44992</v>
@@ -4550,7 +6155,7 @@
         <v>850</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>75</v>
+        <v>520</v>
       </c>
       <c r="F72" s="1">
         <v>0.64375000000000004</v>
@@ -4562,7 +6167,7 @@
         <v>7.5</v>
       </c>
       <c r="I72" s="0" t="s">
-        <v>294</v>
+        <v>784</v>
       </c>
       <c r="J72" s="0">
         <v>142.30000000000001</v>
@@ -4585,7 +6190,7 @@
         <v>2</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C73" s="1">
         <v>44992</v>
@@ -4594,7 +6199,7 @@
         <v>850</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>76</v>
+        <v>521</v>
       </c>
       <c r="F73" s="1">
         <v>0.7055555555555556</v>
@@ -4606,7 +6211,7 @@
         <v>23</v>
       </c>
       <c r="I73" s="0" t="s">
-        <v>295</v>
+        <v>785</v>
       </c>
       <c r="J73" s="0">
         <v>165.80000000000001</v>
@@ -4629,7 +6234,7 @@
         <v>2</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C74" s="1">
         <v>44992</v>
@@ -4638,7 +6243,7 @@
         <v>875</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>77</v>
+        <v>522</v>
       </c>
       <c r="F74" s="1">
         <v>0.7993055555555556</v>
@@ -4650,7 +6255,7 @@
         <v>414</v>
       </c>
       <c r="I74" s="0" t="s">
-        <v>296</v>
+        <v>786</v>
       </c>
       <c r="J74" s="0">
         <v>307.89999999999998</v>
@@ -4673,7 +6278,7 @@
         <v>2</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C75" s="1">
         <v>44993</v>
@@ -4682,7 +6287,7 @@
         <v>810</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>78</v>
+        <v>523</v>
       </c>
       <c r="F75" s="1">
         <v>0.22638888888888889</v>
@@ -4694,7 +6299,7 @@
         <v>7.5</v>
       </c>
       <c r="I75" s="0" t="s">
-        <v>297</v>
+        <v>787</v>
       </c>
       <c r="J75" s="0">
         <v>142.30000000000001</v>
@@ -4717,7 +6322,7 @@
         <v>2</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C76" s="1">
         <v>44993</v>
@@ -4726,7 +6331,7 @@
         <v>810</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>79</v>
+        <v>524</v>
       </c>
       <c r="F76" s="1">
         <v>0.28888888888888886</v>
@@ -4738,7 +6343,7 @@
         <v>385</v>
       </c>
       <c r="I76" s="0" t="s">
-        <v>298</v>
+        <v>788</v>
       </c>
       <c r="J76" s="0">
         <v>165.80000000000001</v>
@@ -4761,7 +6366,7 @@
         <v>2</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C77" s="1">
         <v>44993</v>
@@ -4770,7 +6375,7 @@
         <v>859</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>80</v>
+        <v>525</v>
       </c>
       <c r="F77" s="1">
         <v>0.63263888888888886</v>
@@ -4782,7 +6387,7 @@
         <v>9</v>
       </c>
       <c r="I77" s="0" t="s">
-        <v>299</v>
+        <v>789</v>
       </c>
       <c r="J77" s="0">
         <v>165.59999999999999</v>
@@ -4805,7 +6410,7 @@
         <v>2</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C78" s="1">
         <v>44993</v>
@@ -4814,7 +6419,7 @@
         <v>859</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>81</v>
+        <v>526</v>
       </c>
       <c r="F78" s="1">
         <v>0.71736111111111112</v>
@@ -4826,7 +6431,7 @@
         <v>55</v>
       </c>
       <c r="I78" s="0" t="s">
-        <v>300</v>
+        <v>790</v>
       </c>
       <c r="J78" s="0">
         <v>142.30000000000001</v>
@@ -4849,7 +6454,7 @@
         <v>2</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C79" s="1">
         <v>44993</v>
@@ -4858,7 +6463,7 @@
         <v>866</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>82</v>
+        <v>527</v>
       </c>
       <c r="F79" s="1">
         <v>0.81041666666666667</v>
@@ -4870,7 +6475,7 @@
         <v>416</v>
       </c>
       <c r="I79" s="0" t="s">
-        <v>301</v>
+        <v>791</v>
       </c>
       <c r="J79" s="0">
         <v>308.10000000000002</v>
@@ -4893,7 +6498,7 @@
         <v>2</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C80" s="1">
         <v>44994</v>
@@ -4902,7 +6507,7 @@
         <v>121</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>83</v>
+        <v>528</v>
       </c>
       <c r="F80" s="1">
         <v>0.2388888888888889</v>
@@ -4914,7 +6519,7 @@
         <v>24</v>
       </c>
       <c r="I80" s="0" t="s">
-        <v>302</v>
+        <v>792</v>
       </c>
       <c r="J80" s="0">
         <v>223.69999999999999</v>
@@ -4937,7 +6542,7 @@
         <v>2</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C81" s="1">
         <v>44994</v>
@@ -4946,7 +6551,7 @@
         <v>2720</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>84</v>
+        <v>529</v>
       </c>
       <c r="F81" s="1">
         <v>0.35416666666666669</v>
@@ -4958,7 +6563,7 @@
         <v>20</v>
       </c>
       <c r="I81" s="0" t="s">
-        <v>303</v>
+        <v>793</v>
       </c>
       <c r="J81" s="0">
         <v>60.299999999999997</v>
@@ -4981,7 +6586,7 @@
         <v>2</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C82" s="1">
         <v>44994</v>
@@ -4990,7 +6595,7 @@
         <v>2729</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>85</v>
+        <v>530</v>
       </c>
       <c r="F82" s="1">
         <v>0.40277777777777779</v>
@@ -5002,7 +6607,7 @@
         <v>60</v>
       </c>
       <c r="I82" s="0" t="s">
-        <v>304</v>
+        <v>794</v>
       </c>
       <c r="J82" s="0">
         <v>60.299999999999997</v>
@@ -5025,7 +6630,7 @@
         <v>2</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C83" s="1">
         <v>44994</v>
@@ -5034,7 +6639,7 @@
         <v>4732</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>86</v>
+        <v>531</v>
       </c>
       <c r="F83" s="1">
         <v>0.47916666666666669</v>
@@ -5046,7 +6651,7 @@
         <v>35</v>
       </c>
       <c r="I83" s="0" t="s">
-        <v>305</v>
+        <v>795</v>
       </c>
       <c r="J83" s="0">
         <v>60.299999999999997</v>
@@ -5069,7 +6674,7 @@
         <v>2</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C84" s="1">
         <v>44994</v>
@@ -5078,7 +6683,7 @@
         <v>4741</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>87</v>
+        <v>532</v>
       </c>
       <c r="F84" s="1">
         <v>0.53333333333333333</v>
@@ -5090,7 +6695,7 @@
         <v>83</v>
       </c>
       <c r="I84" s="0" t="s">
-        <v>306</v>
+        <v>796</v>
       </c>
       <c r="J84" s="0">
         <v>60.299999999999997</v>
@@ -5113,7 +6718,7 @@
         <v>2</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C85" s="1">
         <v>44994</v>
@@ -5122,7 +6727,7 @@
         <v>144</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>88</v>
+        <v>533</v>
       </c>
       <c r="F85" s="1">
         <v>0.62013888888888891</v>
@@ -5134,7 +6739,7 @@
         <v>121</v>
       </c>
       <c r="I85" s="0" t="s">
-        <v>307</v>
+        <v>797</v>
       </c>
       <c r="J85" s="0">
         <v>218.69999999999999</v>
@@ -5157,7 +6762,7 @@
         <v>2</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C86" s="1">
         <v>44994</v>
@@ -5166,7 +6771,7 @@
         <v>71</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>89</v>
+        <v>534</v>
       </c>
       <c r="F86" s="1">
         <v>0.78888888888888886</v>
@@ -5178,7 +6783,7 @@
         <v>200</v>
       </c>
       <c r="I86" s="0" t="s">
-        <v>308</v>
+        <v>798</v>
       </c>
       <c r="J86" s="0">
         <v>218.5</v>
@@ -5201,7 +6806,7 @@
         <v>2</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C87" s="1">
         <v>44994</v>
@@ -5210,7 +6815,7 @@
         <v>983</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>90</v>
+        <v>535</v>
       </c>
       <c r="F87" s="1">
         <v>0.99861111111111112</v>
@@ -5222,7 +6827,7 @@
         <v>185</v>
       </c>
       <c r="I87" s="0" t="s">
-        <v>309</v>
+        <v>799</v>
       </c>
       <c r="J87" s="0">
         <v>136.5</v>
@@ -5245,7 +6850,7 @@
         <v>2</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C88" s="1">
         <v>44995</v>
@@ -5254,7 +6859,7 @@
         <v>910</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>91</v>
+        <v>536</v>
       </c>
       <c r="F88" s="1">
         <v>0.19097222222222221</v>
@@ -5266,7 +6871,7 @@
         <v>16</v>
       </c>
       <c r="I88" s="0" t="s">
-        <v>310</v>
+        <v>800</v>
       </c>
       <c r="J88" s="0">
         <v>136.5</v>
@@ -5289,7 +6894,7 @@
         <v>2</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C89" s="1">
         <v>44995</v>
@@ -5298,7 +6903,7 @@
         <v>10</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>92</v>
+        <v>537</v>
       </c>
       <c r="F89" s="1">
         <v>0.26597222222222222</v>
@@ -5310,7 +6915,7 @@
         <v>9</v>
       </c>
       <c r="I89" s="0" t="s">
-        <v>311</v>
+        <v>801</v>
       </c>
       <c r="J89" s="0">
         <v>218.69999999999999</v>
@@ -5333,7 +6938,7 @@
         <v>2</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C90" s="1">
         <v>44995</v>
@@ -5342,7 +6947,7 @@
         <v>10</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>93</v>
+        <v>538</v>
       </c>
       <c r="F90" s="1">
         <v>0.34166666666666667</v>
@@ -5354,7 +6959,7 @@
         <v>363</v>
       </c>
       <c r="I90" s="0" t="s">
-        <v>312</v>
+        <v>802</v>
       </c>
       <c r="J90" s="0">
         <v>11.800000000000001</v>
@@ -5377,7 +6982,7 @@
         <v>2</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C91" s="1">
         <v>44995</v>
@@ -5386,7 +6991,7 @@
         <v>55</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>94</v>
+        <v>539</v>
       </c>
       <c r="F91" s="1">
         <v>0.60277777777777775</v>
@@ -5398,7 +7003,7 @@
         <v>15</v>
       </c>
       <c r="I91" s="0" t="s">
-        <v>313</v>
+        <v>803</v>
       </c>
       <c r="J91" s="0">
         <v>11.800000000000001</v>
@@ -5421,7 +7026,7 @@
         <v>2</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C92" s="1">
         <v>44995</v>
@@ -5430,7 +7035,7 @@
         <v>55</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>95</v>
+        <v>540</v>
       </c>
       <c r="F92" s="1">
         <v>0.62222222222222223</v>
@@ -5442,7 +7047,7 @@
         <v>52</v>
       </c>
       <c r="I92" s="0" t="s">
-        <v>314</v>
+        <v>804</v>
       </c>
       <c r="J92" s="0">
         <v>218.5</v>
@@ -5465,7 +7070,7 @@
         <v>2</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C93" s="1">
         <v>44995</v>
@@ -5474,7 +7079,7 @@
         <v>4756</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>96</v>
+        <v>541</v>
       </c>
       <c r="F93" s="1">
         <v>0.72916666666666663</v>
@@ -5486,7 +7091,7 @@
         <v>883</v>
       </c>
       <c r="I93" s="0" t="s">
-        <v>315</v>
+        <v>805</v>
       </c>
       <c r="J93" s="0">
         <v>60.299999999999997</v>
@@ -5509,7 +7114,7 @@
         <v>2</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C94" s="1">
         <v>44996</v>
@@ -5518,7 +7123,7 @@
         <v>818</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>97</v>
+        <v>542</v>
       </c>
       <c r="F94" s="1">
         <v>0.37222222222222223</v>
@@ -5530,7 +7135,7 @@
         <v>83</v>
       </c>
       <c r="I94" s="0" t="s">
-        <v>316</v>
+        <v>806</v>
       </c>
       <c r="J94" s="0">
         <v>165.80000000000001</v>
@@ -5553,7 +7158,7 @@
         <v>2</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C95" s="1">
         <v>44996</v>
@@ -5562,7 +7167,7 @@
         <v>847</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>98</v>
+        <v>543</v>
       </c>
       <c r="F95" s="1">
         <v>0.50763888888888886</v>
@@ -5574,7 +7179,7 @@
         <v>52</v>
       </c>
       <c r="I95" s="0" t="s">
-        <v>317</v>
+        <v>807</v>
       </c>
       <c r="J95" s="0">
         <v>165.59999999999999</v>
@@ -5597,7 +7202,7 @@
         <v>2</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C96" s="1">
         <v>44996</v>
@@ -5606,7 +7211,7 @@
         <v>842</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>99</v>
+        <v>544</v>
       </c>
       <c r="F96" s="1">
         <v>0.62222222222222223</v>
@@ -5618,7 +7223,7 @@
         <v>83</v>
       </c>
       <c r="I96" s="0" t="s">
-        <v>318</v>
+        <v>808</v>
       </c>
       <c r="J96" s="0">
         <v>165.80000000000001</v>
@@ -5641,7 +7246,7 @@
         <v>2</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C97" s="1">
         <v>44996</v>
@@ -5650,7 +7255,7 @@
         <v>871</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>100</v>
+        <v>545</v>
       </c>
       <c r="F97" s="1">
         <v>0.75763888888888886</v>
@@ -5662,7 +7267,7 @@
         <v>952</v>
       </c>
       <c r="I97" s="0" t="s">
-        <v>319</v>
+        <v>809</v>
       </c>
       <c r="J97" s="0">
         <v>165.59999999999999</v>
@@ -5685,7 +7290,7 @@
         <v>2</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C98" s="1">
         <v>44997</v>
@@ -5694,7 +7299,7 @@
         <v>830</v>
       </c>
       <c r="E98" s="0" t="s">
-        <v>101</v>
+        <v>546</v>
       </c>
       <c r="F98" s="1">
         <v>0.49722222222222223</v>
@@ -5706,7 +7311,7 @@
         <v>83</v>
       </c>
       <c r="I98" s="0" t="s">
-        <v>320</v>
+        <v>810</v>
       </c>
       <c r="J98" s="0">
         <v>165.80000000000001</v>
@@ -5729,7 +7334,7 @@
         <v>2</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C99" s="1">
         <v>44997</v>
@@ -5738,7 +7343,7 @@
         <v>859</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>102</v>
+        <v>547</v>
       </c>
       <c r="F99" s="1">
         <v>0.63263888888888886</v>
@@ -5750,7 +7355,7 @@
         <v>55</v>
       </c>
       <c r="I99" s="0" t="s">
-        <v>321</v>
+        <v>811</v>
       </c>
       <c r="J99" s="0">
         <v>307.89999999999998</v>
@@ -5773,7 +7378,7 @@
         <v>2</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C100" s="1">
         <v>44997</v>
@@ -5782,7 +7387,7 @@
         <v>866</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>103</v>
+        <v>548</v>
       </c>
       <c r="F100" s="1">
         <v>0.81041666666666667</v>
@@ -5794,7 +7399,7 @@
         <v>7.5</v>
       </c>
       <c r="I100" s="0" t="s">
-        <v>322</v>
+        <v>812</v>
       </c>
       <c r="J100" s="0">
         <v>142.30000000000001</v>
@@ -5817,7 +7422,7 @@
         <v>2</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C101" s="1">
         <v>44997</v>
@@ -5826,7 +7431,7 @@
         <v>866</v>
       </c>
       <c r="E101" s="0" t="s">
-        <v>104</v>
+        <v>549</v>
       </c>
       <c r="F101" s="1">
         <v>0.87222222222222223</v>
@@ -5835,10 +7440,10 @@
         <v>0.94999999999999996</v>
       </c>
       <c r="H101" s="0">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I101" s="0" t="s">
-        <v>323</v>
+        <v>813</v>
       </c>
       <c r="J101" s="0">
         <v>165.80000000000001</v>
@@ -5861,7 +7466,7 @@
         <v>3</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C102" s="1">
         <v>44990</v>
@@ -5870,7 +7475,7 @@
         <v>476</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>105</v>
+        <v>550</v>
       </c>
       <c r="F102" s="1">
         <v>0.95347222222222228</v>
@@ -5882,7 +7487,7 @@
         <v>11</v>
       </c>
       <c r="I102" s="0" t="s">
-        <v>324</v>
+        <v>814</v>
       </c>
       <c r="J102" s="0">
         <v>220.90000000000001</v>
@@ -5905,7 +7510,7 @@
         <v>3</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C103" s="1">
         <v>44991</v>
@@ -5914,7 +7519,7 @@
         <v>476</v>
       </c>
       <c r="E103" s="0" t="s">
-        <v>106</v>
+        <v>551</v>
       </c>
       <c r="F103" s="1">
         <v>0.049305555555555554</v>
@@ -5926,7 +7531,7 @@
         <v>364</v>
       </c>
       <c r="I103" s="0" t="s">
-        <v>325</v>
+        <v>815</v>
       </c>
       <c r="J103" s="0">
         <v>11.800000000000001</v>
@@ -5949,7 +7554,7 @@
         <v>3</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C104" s="1">
         <v>44991</v>
@@ -5958,7 +7563,7 @@
         <v>27</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>107</v>
+        <v>552</v>
       </c>
       <c r="F104" s="1">
         <v>0.31111111111111112</v>
@@ -5970,7 +7575,7 @@
         <v>15</v>
       </c>
       <c r="I104" s="0" t="s">
-        <v>326</v>
+        <v>816</v>
       </c>
       <c r="J104" s="0">
         <v>11.800000000000001</v>
@@ -5993,7 +7598,7 @@
         <v>3</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C105" s="1">
         <v>44991</v>
@@ -6002,7 +7607,7 @@
         <v>27</v>
       </c>
       <c r="E105" s="0" t="s">
-        <v>108</v>
+        <v>553</v>
       </c>
       <c r="F105" s="1">
         <v>0.33055555555555555</v>
@@ -6014,7 +7619,7 @@
         <v>12</v>
       </c>
       <c r="I105" s="0" t="s">
-        <v>327</v>
+        <v>817</v>
       </c>
       <c r="J105" s="0">
         <v>218.5</v>
@@ -6037,7 +7642,7 @@
         <v>3</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C106" s="1">
         <v>44991</v>
@@ -6046,7 +7651,7 @@
         <v>927</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>109</v>
+        <v>554</v>
       </c>
       <c r="F106" s="1">
         <v>0.40972222222222221</v>
@@ -6058,7 +7663,7 @@
         <v>13</v>
       </c>
       <c r="I106" s="0" t="s">
-        <v>328</v>
+        <v>818</v>
       </c>
       <c r="J106" s="0">
         <v>136.5</v>
@@ -6081,7 +7686,7 @@
         <v>3</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C107" s="1">
         <v>44991</v>
@@ -6090,7 +7695,7 @@
         <v>938</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>110</v>
+        <v>555</v>
       </c>
       <c r="F107" s="1">
         <v>0.4826388888888889</v>
@@ -6102,7 +7707,7 @@
         <v>16</v>
       </c>
       <c r="I107" s="0" t="s">
-        <v>329</v>
+        <v>819</v>
       </c>
       <c r="J107" s="0">
         <v>136.5</v>
@@ -6125,7 +7730,7 @@
         <v>3</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C108" s="1">
         <v>44991</v>
@@ -6134,7 +7739,7 @@
         <v>38</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>111</v>
+        <v>556</v>
       </c>
       <c r="F108" s="1">
         <v>0.55763888888888891</v>
@@ -6146,7 +7751,7 @@
         <v>9</v>
       </c>
       <c r="I108" s="0" t="s">
-        <v>330</v>
+        <v>820</v>
       </c>
       <c r="J108" s="0">
         <v>218.69999999999999</v>
@@ -6169,7 +7774,7 @@
         <v>3</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C109" s="1">
         <v>44991</v>
@@ -6178,7 +7783,7 @@
         <v>38</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>112</v>
+        <v>557</v>
       </c>
       <c r="F109" s="1">
         <v>0.6333333333333333</v>
@@ -6190,7 +7795,7 @@
         <v>123</v>
       </c>
       <c r="I109" s="0" t="s">
-        <v>331</v>
+        <v>821</v>
       </c>
       <c r="J109" s="0">
         <v>11.800000000000001</v>
@@ -6213,7 +7818,7 @@
         <v>3</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C110" s="1">
         <v>44991</v>
@@ -6222,7 +7827,7 @@
         <v>67</v>
       </c>
       <c r="E110" s="0" t="s">
-        <v>113</v>
+        <v>558</v>
       </c>
       <c r="F110" s="1">
         <v>0.72777777777777775</v>
@@ -6234,7 +7839,7 @@
         <v>15</v>
       </c>
       <c r="I110" s="0" t="s">
-        <v>332</v>
+        <v>822</v>
       </c>
       <c r="J110" s="0">
         <v>11.800000000000001</v>
@@ -6257,7 +7862,7 @@
         <v>3</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C111" s="1">
         <v>44991</v>
@@ -6266,7 +7871,7 @@
         <v>67</v>
       </c>
       <c r="E111" s="0" t="s">
-        <v>114</v>
+        <v>559</v>
       </c>
       <c r="F111" s="1">
         <v>0.74722222222222223</v>
@@ -6278,7 +7883,7 @@
         <v>12</v>
       </c>
       <c r="I111" s="0" t="s">
-        <v>333</v>
+        <v>823</v>
       </c>
       <c r="J111" s="0">
         <v>218.5</v>
@@ -6301,7 +7906,7 @@
         <v>3</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C112" s="1">
         <v>44991</v>
@@ -6310,7 +7915,7 @@
         <v>967</v>
       </c>
       <c r="E112" s="0" t="s">
-        <v>115</v>
+        <v>560</v>
       </c>
       <c r="F112" s="1">
         <v>0.82638888888888884</v>
@@ -6322,7 +7927,7 @@
         <v>13</v>
       </c>
       <c r="I112" s="0" t="s">
-        <v>334</v>
+        <v>824</v>
       </c>
       <c r="J112" s="0">
         <v>136.5</v>
@@ -6345,7 +7950,7 @@
         <v>3</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C113" s="1">
         <v>44991</v>
@@ -6354,7 +7959,7 @@
         <v>978</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>116</v>
+        <v>561</v>
       </c>
       <c r="F113" s="1">
         <v>0.89930555555555558</v>
@@ -6366,7 +7971,7 @@
         <v>7</v>
       </c>
       <c r="I113" s="0" t="s">
-        <v>335</v>
+        <v>825</v>
       </c>
       <c r="J113" s="0">
         <v>136.5</v>
@@ -6389,7 +7994,7 @@
         <v>3</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C114" s="1">
         <v>44991</v>
@@ -6398,7 +8003,7 @@
         <v>78</v>
       </c>
       <c r="E114" s="0" t="s">
-        <v>117</v>
+        <v>562</v>
       </c>
       <c r="F114" s="1">
         <v>0.96805555555555556</v>
@@ -6410,7 +8015,7 @@
         <v>264</v>
       </c>
       <c r="I114" s="0" t="s">
-        <v>336</v>
+        <v>826</v>
       </c>
       <c r="J114" s="0">
         <v>60.299999999999997</v>
@@ -6433,7 +8038,7 @@
         <v>3</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C115" s="1">
         <v>44992</v>
@@ -6442,7 +8047,7 @@
         <v>400</v>
       </c>
       <c r="E115" s="0" t="s">
-        <v>118</v>
+        <v>563</v>
       </c>
       <c r="F115" s="1">
         <v>0.17499999999999999</v>
@@ -6454,7 +8059,7 @@
         <v>77</v>
       </c>
       <c r="I115" s="0" t="s">
-        <v>337</v>
+        <v>827</v>
       </c>
       <c r="J115" s="0">
         <v>160.59999999999999</v>
@@ -6477,7 +8082,7 @@
         <v>3</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C116" s="1">
         <v>44992</v>
@@ -6486,7 +8091,7 @@
         <v>125</v>
       </c>
       <c r="E116" s="0" t="s">
-        <v>119</v>
+        <v>564</v>
       </c>
       <c r="F116" s="1">
         <v>0.2951388888888889</v>
@@ -6498,7 +8103,7 @@
         <v>47</v>
       </c>
       <c r="I116" s="0" t="s">
-        <v>338</v>
+        <v>828</v>
       </c>
       <c r="J116" s="0">
         <v>218.5</v>
@@ -6521,7 +8126,7 @@
         <v>3</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C117" s="1">
         <v>44992</v>
@@ -6530,7 +8135,7 @@
         <v>124</v>
       </c>
       <c r="E117" s="0" t="s">
-        <v>120</v>
+        <v>565</v>
       </c>
       <c r="F117" s="1">
         <v>0.41180555555555554</v>
@@ -6542,7 +8147,7 @@
         <v>92</v>
       </c>
       <c r="I117" s="0" t="s">
-        <v>339</v>
+        <v>829</v>
       </c>
       <c r="J117" s="0">
         <v>223.90000000000001</v>
@@ -6565,7 +8170,7 @@
         <v>3</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C118" s="1">
         <v>44992</v>
@@ -6574,7 +8179,7 @@
         <v>153</v>
       </c>
       <c r="E118" s="0" t="s">
-        <v>121</v>
+        <v>566</v>
       </c>
       <c r="F118" s="1">
         <v>0.57222222222222219</v>
@@ -6586,7 +8191,7 @@
         <v>47</v>
       </c>
       <c r="I118" s="0" t="s">
-        <v>340</v>
+        <v>830</v>
       </c>
       <c r="J118" s="0">
         <v>223.69999999999999</v>
@@ -6609,7 +8214,7 @@
         <v>3</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C119" s="1">
         <v>44992</v>
@@ -6618,7 +8223,7 @@
         <v>152</v>
       </c>
       <c r="E119" s="0" t="s">
-        <v>122</v>
+        <v>567</v>
       </c>
       <c r="F119" s="1">
         <v>0.70347222222222228</v>
@@ -6630,7 +8235,7 @@
         <v>50</v>
       </c>
       <c r="I119" s="0" t="s">
-        <v>341</v>
+        <v>831</v>
       </c>
       <c r="J119" s="0">
         <v>223.90000000000001</v>
@@ -6653,7 +8258,7 @@
         <v>3</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C120" s="1">
         <v>44992</v>
@@ -6662,7 +8267,7 @@
         <v>9777</v>
       </c>
       <c r="E120" s="0" t="s">
-        <v>123</v>
+        <v>568</v>
       </c>
       <c r="F120" s="1">
         <v>0.83472222222222225</v>
@@ -6674,7 +8279,7 @@
         <v>13</v>
       </c>
       <c r="I120" s="0" t="s">
-        <v>342</v>
+        <v>832</v>
       </c>
       <c r="J120" s="0">
         <v>5.2000000000000002</v>
@@ -6697,7 +8302,7 @@
         <v>3</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C121" s="1">
         <v>44992</v>
@@ -6706,7 +8311,7 @@
         <v>4258</v>
       </c>
       <c r="E121" s="0" t="s">
-        <v>124</v>
+        <v>569</v>
       </c>
       <c r="F121" s="1">
         <v>0.85138888888888886</v>
@@ -6718,7 +8323,7 @@
         <v>599</v>
       </c>
       <c r="I121" s="0" t="s">
-        <v>343</v>
+        <v>833</v>
       </c>
       <c r="J121" s="0">
         <v>46.200000000000003</v>
@@ -6741,7 +8346,7 @@
         <v>3</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C122" s="1">
         <v>44993</v>
@@ -6750,7 +8355,7 @@
         <v>3429</v>
       </c>
       <c r="E122" s="0" t="s">
-        <v>125</v>
+        <v>570</v>
       </c>
       <c r="F122" s="1">
         <v>0.29930555555555555</v>
@@ -6762,7 +8367,7 @@
         <v>10</v>
       </c>
       <c r="I122" s="0" t="s">
-        <v>344</v>
+        <v>834</v>
       </c>
       <c r="J122" s="0">
         <v>46.200000000000003</v>
@@ -6785,7 +8390,7 @@
         <v>3</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C123" s="1">
         <v>44993</v>
@@ -6794,7 +8399,7 @@
         <v>129</v>
       </c>
       <c r="E123" s="0" t="s">
-        <v>126</v>
+        <v>571</v>
       </c>
       <c r="F123" s="1">
         <v>0.33680555555555558</v>
@@ -6806,7 +8411,7 @@
         <v>47</v>
       </c>
       <c r="I123" s="0" t="s">
-        <v>345</v>
+        <v>835</v>
       </c>
       <c r="J123" s="0">
         <v>218.5</v>
@@ -6829,7 +8434,7 @@
         <v>3</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C124" s="1">
         <v>44993</v>
@@ -6838,7 +8443,7 @@
         <v>128</v>
       </c>
       <c r="E124" s="0" t="s">
-        <v>127</v>
+        <v>572</v>
       </c>
       <c r="F124" s="1">
         <v>0.45347222222222222</v>
@@ -6850,7 +8455,7 @@
         <v>59</v>
       </c>
       <c r="I124" s="0" t="s">
-        <v>346</v>
+        <v>836</v>
       </c>
       <c r="J124" s="0">
         <v>223.90000000000001</v>
@@ -6873,7 +8478,7 @@
         <v>3</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C125" s="1">
         <v>44993</v>
@@ -6882,7 +8487,7 @@
         <v>855</v>
       </c>
       <c r="E125" s="0" t="s">
-        <v>128</v>
+        <v>573</v>
       </c>
       <c r="F125" s="1">
         <v>0.59097222222222223</v>
@@ -6894,7 +8499,7 @@
         <v>52</v>
       </c>
       <c r="I125" s="0" t="s">
-        <v>347</v>
+        <v>837</v>
       </c>
       <c r="J125" s="0">
         <v>165.59999999999999</v>
@@ -6917,7 +8522,7 @@
         <v>3</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C126" s="1">
         <v>44993</v>
@@ -6926,7 +8531,7 @@
         <v>850</v>
       </c>
       <c r="E126" s="0" t="s">
-        <v>129</v>
+        <v>574</v>
       </c>
       <c r="F126" s="1">
         <v>0.7055555555555556</v>
@@ -6938,7 +8543,7 @@
         <v>83</v>
       </c>
       <c r="I126" s="0" t="s">
-        <v>348</v>
+        <v>838</v>
       </c>
       <c r="J126" s="0">
         <v>165.80000000000001</v>
@@ -6961,7 +8566,7 @@
         <v>3</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C127" s="1">
         <v>44993</v>
@@ -6970,7 +8575,7 @@
         <v>879</v>
       </c>
       <c r="E127" s="0" t="s">
-        <v>130</v>
+        <v>575</v>
       </c>
       <c r="F127" s="1">
         <v>0.84097222222222223</v>
@@ -6982,7 +8587,7 @@
         <v>472</v>
       </c>
       <c r="I127" s="0" t="s">
-        <v>349</v>
+        <v>839</v>
       </c>
       <c r="J127" s="0">
         <v>165.59999999999999</v>
@@ -7005,7 +8610,7 @@
         <v>3</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C128" s="1">
         <v>44994</v>
@@ -7014,7 +8619,7 @@
         <v>806</v>
       </c>
       <c r="E128" s="0" t="s">
-        <v>131</v>
+        <v>576</v>
       </c>
       <c r="F128" s="1">
         <v>0.24722222222222223</v>
@@ -7026,7 +8631,7 @@
         <v>323</v>
       </c>
       <c r="I128" s="0" t="s">
-        <v>350</v>
+        <v>840</v>
       </c>
       <c r="J128" s="0">
         <v>165.80000000000001</v>
@@ -7049,7 +8654,7 @@
         <v>3</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C129" s="1">
         <v>44994</v>
@@ -7058,7 +8663,7 @@
         <v>851</v>
       </c>
       <c r="E129" s="0" t="s">
-        <v>132</v>
+        <v>577</v>
       </c>
       <c r="F129" s="1">
         <v>0.5493055555555556</v>
@@ -7070,7 +8675,7 @@
         <v>9</v>
       </c>
       <c r="I129" s="0" t="s">
-        <v>351</v>
+        <v>841</v>
       </c>
       <c r="J129" s="0">
         <v>165.59999999999999</v>
@@ -7093,7 +8698,7 @@
         <v>3</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C130" s="1">
         <v>44994</v>
@@ -7102,7 +8707,7 @@
         <v>851</v>
       </c>
       <c r="E130" s="0" t="s">
-        <v>133</v>
+        <v>578</v>
       </c>
       <c r="F130" s="1">
         <v>0.63402777777777775</v>
@@ -7114,7 +8719,7 @@
         <v>55</v>
       </c>
       <c r="I130" s="0" t="s">
-        <v>352</v>
+        <v>842</v>
       </c>
       <c r="J130" s="0">
         <v>142.30000000000001</v>
@@ -7137,7 +8742,7 @@
         <v>3</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C131" s="1">
         <v>44994</v>
@@ -7146,7 +8751,7 @@
         <v>858</v>
       </c>
       <c r="E131" s="0" t="s">
-        <v>134</v>
+        <v>579</v>
       </c>
       <c r="F131" s="1">
         <v>0.7270833333333333</v>
@@ -7158,7 +8763,7 @@
         <v>536</v>
       </c>
       <c r="I131" s="0" t="s">
-        <v>353</v>
+        <v>843</v>
       </c>
       <c r="J131" s="0">
         <v>308.10000000000002</v>
@@ -7181,7 +8786,7 @@
         <v>3</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C132" s="1">
         <v>44995</v>
@@ -7190,7 +8795,7 @@
         <v>121</v>
       </c>
       <c r="E132" s="0" t="s">
-        <v>135</v>
+        <v>580</v>
       </c>
       <c r="F132" s="1">
         <v>0.2388888888888889</v>
@@ -7202,7 +8807,7 @@
         <v>47</v>
       </c>
       <c r="I132" s="0" t="s">
-        <v>354</v>
+        <v>844</v>
       </c>
       <c r="J132" s="0">
         <v>223.69999999999999</v>
@@ -7225,7 +8830,7 @@
         <v>3</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C133" s="1">
         <v>44995</v>
@@ -7234,7 +8839,7 @@
         <v>120</v>
       </c>
       <c r="E133" s="0" t="s">
-        <v>136</v>
+        <v>581</v>
       </c>
       <c r="F133" s="1">
         <v>0.37013888888888891</v>
@@ -7246,7 +8851,7 @@
         <v>32</v>
       </c>
       <c r="I133" s="0" t="s">
-        <v>355</v>
+        <v>845</v>
       </c>
       <c r="J133" s="0">
         <v>223.90000000000001</v>
@@ -7269,7 +8874,7 @@
         <v>3</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C134" s="1">
         <v>44995</v>
@@ -7278,7 +8883,7 @@
         <v>145</v>
       </c>
       <c r="E134" s="0" t="s">
-        <v>137</v>
+        <v>582</v>
       </c>
       <c r="F134" s="1">
         <v>0.48888888888888887</v>
@@ -7290,7 +8895,7 @@
         <v>47</v>
       </c>
       <c r="I134" s="0" t="s">
-        <v>356</v>
+        <v>846</v>
       </c>
       <c r="J134" s="0">
         <v>223.69999999999999</v>
@@ -7313,7 +8918,7 @@
         <v>3</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C135" s="1">
         <v>44995</v>
@@ -7322,7 +8927,7 @@
         <v>144</v>
       </c>
       <c r="E135" s="0" t="s">
-        <v>138</v>
+        <v>583</v>
       </c>
       <c r="F135" s="1">
         <v>0.62013888888888891</v>
@@ -7334,7 +8939,7 @@
         <v>29</v>
       </c>
       <c r="I135" s="0" t="s">
-        <v>357</v>
+        <v>847</v>
       </c>
       <c r="J135" s="0">
         <v>223.90000000000001</v>
@@ -7357,7 +8962,7 @@
         <v>3</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C136" s="1">
         <v>44995</v>
@@ -7366,7 +8971,7 @@
         <v>169</v>
       </c>
       <c r="E136" s="0" t="s">
-        <v>139</v>
+        <v>584</v>
       </c>
       <c r="F136" s="1">
         <v>0.7368055555555556</v>
@@ -7378,7 +8983,7 @@
         <v>47</v>
       </c>
       <c r="I136" s="0" t="s">
-        <v>358</v>
+        <v>848</v>
       </c>
       <c r="J136" s="0">
         <v>223.69999999999999</v>
@@ -7401,7 +9006,7 @@
         <v>3</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C137" s="1">
         <v>44995</v>
@@ -7410,7 +9015,7 @@
         <v>168</v>
       </c>
       <c r="E137" s="0" t="s">
-        <v>140</v>
+        <v>585</v>
       </c>
       <c r="F137" s="1">
         <v>0.87013888888888891</v>
@@ -7422,7 +9027,7 @@
         <v>60</v>
       </c>
       <c r="I137" s="0" t="s">
-        <v>359</v>
+        <v>849</v>
       </c>
       <c r="J137" s="0">
         <v>218.69999999999999</v>
@@ -7445,7 +9050,7 @@
         <v>3</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C138" s="1">
         <v>44995</v>
@@ -7454,7 +9059,7 @@
         <v>9770</v>
       </c>
       <c r="E138" s="0" t="s">
-        <v>141</v>
+        <v>586</v>
       </c>
       <c r="F138" s="1">
         <v>0.99652777777777779</v>
@@ -7466,7 +9071,7 @@
         <v>456</v>
       </c>
       <c r="I138" s="0" t="s">
-        <v>360</v>
+        <v>850</v>
       </c>
       <c r="J138" s="0">
         <v>5.2000000000000002</v>
@@ -7489,7 +9094,7 @@
         <v>3</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C139" s="1">
         <v>44996</v>
@@ -7498,7 +9103,7 @@
         <v>129</v>
       </c>
       <c r="E139" s="0" t="s">
-        <v>142</v>
+        <v>587</v>
       </c>
       <c r="F139" s="1">
         <v>0.32013888888888886</v>
@@ -7510,7 +9115,7 @@
         <v>47</v>
       </c>
       <c r="I139" s="0" t="s">
-        <v>361</v>
+        <v>851</v>
       </c>
       <c r="J139" s="0">
         <v>223.69999999999999</v>
@@ -7533,7 +9138,7 @@
         <v>3</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C140" s="1">
         <v>44996</v>
@@ -7542,7 +9147,7 @@
         <v>128</v>
       </c>
       <c r="E140" s="0" t="s">
-        <v>143</v>
+        <v>588</v>
       </c>
       <c r="F140" s="1">
         <v>0.45347222222222222</v>
@@ -7554,7 +9159,7 @@
         <v>32</v>
       </c>
       <c r="I140" s="0" t="s">
-        <v>362</v>
+        <v>852</v>
       </c>
       <c r="J140" s="0">
         <v>223.90000000000001</v>
@@ -7577,7 +9182,7 @@
         <v>3</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C141" s="1">
         <v>44996</v>
@@ -7586,7 +9191,7 @@
         <v>153</v>
       </c>
       <c r="E141" s="0" t="s">
-        <v>144</v>
+        <v>589</v>
       </c>
       <c r="F141" s="1">
         <v>0.57222222222222219</v>
@@ -7598,7 +9203,7 @@
         <v>137</v>
       </c>
       <c r="I141" s="0" t="s">
-        <v>363</v>
+        <v>853</v>
       </c>
       <c r="J141" s="0">
         <v>223.69999999999999</v>
@@ -7621,7 +9226,7 @@
         <v>3</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C142" s="1">
         <v>44996</v>
@@ -7630,7 +9235,7 @@
         <v>58</v>
       </c>
       <c r="E142" s="0" t="s">
-        <v>145</v>
+        <v>590</v>
       </c>
       <c r="F142" s="1">
         <v>0.76597222222222228</v>
@@ -7642,7 +9247,7 @@
         <v>9</v>
       </c>
       <c r="I142" s="0" t="s">
-        <v>364</v>
+        <v>854</v>
       </c>
       <c r="J142" s="0">
         <v>218.69999999999999</v>
@@ -7665,7 +9270,7 @@
         <v>3</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C143" s="1">
         <v>44996</v>
@@ -7674,7 +9279,7 @@
         <v>58</v>
       </c>
       <c r="E143" s="0" t="s">
-        <v>146</v>
+        <v>591</v>
       </c>
       <c r="F143" s="1">
         <v>0.84166666666666667</v>
@@ -7686,7 +9291,7 @@
         <v>135</v>
       </c>
       <c r="I143" s="0" t="s">
-        <v>365</v>
+        <v>855</v>
       </c>
       <c r="J143" s="0">
         <v>11.800000000000001</v>
@@ -7709,7 +9314,7 @@
         <v>3</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C144" s="1">
         <v>44996</v>
@@ -7718,7 +9323,7 @@
         <v>437</v>
       </c>
       <c r="E144" s="0" t="s">
-        <v>147</v>
+        <v>592</v>
       </c>
       <c r="F144" s="1">
         <v>0.94444444444444442</v>
@@ -7730,7 +9335,7 @@
         <v>8</v>
       </c>
       <c r="I144" s="0" t="s">
-        <v>366</v>
+        <v>856</v>
       </c>
       <c r="J144" s="0">
         <v>11.800000000000001</v>
@@ -7753,7 +9358,7 @@
         <v>3</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C145" s="1">
         <v>44996</v>
@@ -7762,7 +9367,7 @@
         <v>437</v>
       </c>
       <c r="E145" s="0" t="s">
-        <v>148</v>
+        <v>593</v>
       </c>
       <c r="F145" s="1">
         <v>0.95902777777777781</v>
@@ -7774,7 +9379,7 @@
         <v>5</v>
       </c>
       <c r="I145" s="0" t="s">
-        <v>367</v>
+        <v>857</v>
       </c>
       <c r="J145" s="0">
         <v>160.40000000000001</v>
@@ -7797,7 +9402,7 @@
         <v>3</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C146" s="1">
         <v>44997</v>
@@ -7806,7 +9411,7 @@
         <v>2789</v>
       </c>
       <c r="E146" s="0" t="s">
-        <v>149</v>
+        <v>594</v>
       </c>
       <c r="F146" s="1">
         <v>0.027777777777777776</v>
@@ -7818,7 +9423,7 @@
         <v>416</v>
       </c>
       <c r="I146" s="0" t="s">
-        <v>368</v>
+        <v>858</v>
       </c>
       <c r="J146" s="0">
         <v>60.299999999999997</v>
@@ -7841,7 +9446,7 @@
         <v>3</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C147" s="1">
         <v>44997</v>
@@ -7850,7 +9455,7 @@
         <v>2720</v>
       </c>
       <c r="E147" s="0" t="s">
-        <v>150</v>
+        <v>595</v>
       </c>
       <c r="F147" s="1">
         <v>0.35416666666666669</v>
@@ -7862,7 +9467,7 @@
         <v>20</v>
       </c>
       <c r="I147" s="0" t="s">
-        <v>369</v>
+        <v>859</v>
       </c>
       <c r="J147" s="0">
         <v>60.299999999999997</v>
@@ -7885,7 +9490,7 @@
         <v>3</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C148" s="1">
         <v>44997</v>
@@ -7894,7 +9499,7 @@
         <v>2729</v>
       </c>
       <c r="E148" s="0" t="s">
-        <v>151</v>
+        <v>596</v>
       </c>
       <c r="F148" s="1">
         <v>0.40277777777777779</v>
@@ -7906,7 +9511,7 @@
         <v>60</v>
       </c>
       <c r="I148" s="0" t="s">
-        <v>370</v>
+        <v>860</v>
       </c>
       <c r="J148" s="0">
         <v>60.299999999999997</v>
@@ -7929,7 +9534,7 @@
         <v>3</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C149" s="1">
         <v>44997</v>
@@ -7938,7 +9543,7 @@
         <v>4732</v>
       </c>
       <c r="E149" s="0" t="s">
-        <v>152</v>
+        <v>597</v>
       </c>
       <c r="F149" s="1">
         <v>0.47916666666666669</v>
@@ -7950,7 +9555,7 @@
         <v>35</v>
       </c>
       <c r="I149" s="0" t="s">
-        <v>371</v>
+        <v>861</v>
       </c>
       <c r="J149" s="0">
         <v>60.299999999999997</v>
@@ -7973,7 +9578,7 @@
         <v>3</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C150" s="1">
         <v>44997</v>
@@ -7982,7 +9587,7 @@
         <v>4741</v>
       </c>
       <c r="E150" s="0" t="s">
-        <v>153</v>
+        <v>598</v>
       </c>
       <c r="F150" s="1">
         <v>0.53333333333333333</v>
@@ -7994,7 +9599,7 @@
         <v>60</v>
       </c>
       <c r="I150" s="0" t="s">
-        <v>372</v>
+        <v>862</v>
       </c>
       <c r="J150" s="0">
         <v>60.299999999999997</v>
@@ -8017,7 +9622,7 @@
         <v>3</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C151" s="1">
         <v>44997</v>
@@ -8026,7 +9631,7 @@
         <v>2744</v>
       </c>
       <c r="E151" s="0" t="s">
-        <v>154</v>
+        <v>599</v>
       </c>
       <c r="F151" s="1">
         <v>0.60416666666666663</v>
@@ -8038,7 +9643,7 @@
         <v>14</v>
       </c>
       <c r="I151" s="0" t="s">
-        <v>373</v>
+        <v>863</v>
       </c>
       <c r="J151" s="0">
         <v>60.299999999999997</v>
@@ -8061,7 +9666,7 @@
         <v>3</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C152" s="1">
         <v>44997</v>
@@ -8070,7 +9675,7 @@
         <v>2753</v>
       </c>
       <c r="E152" s="0" t="s">
-        <v>155</v>
+        <v>600</v>
       </c>
       <c r="F152" s="1">
         <v>0.65486111111111112</v>
@@ -8082,7 +9687,7 @@
         <v>20</v>
       </c>
       <c r="I152" s="0" t="s">
-        <v>374</v>
+        <v>864</v>
       </c>
       <c r="J152" s="0">
         <v>60.299999999999997</v>
@@ -8105,7 +9710,7 @@
         <v>3</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C153" s="1">
         <v>44997</v>
@@ -8114,7 +9719,7 @@
         <v>152</v>
       </c>
       <c r="E153" s="0" t="s">
-        <v>156</v>
+        <v>601</v>
       </c>
       <c r="F153" s="1">
         <v>0.70347222222222228</v>
@@ -8126,7 +9731,7 @@
         <v>4</v>
       </c>
       <c r="I153" s="0" t="s">
-        <v>375</v>
+        <v>865</v>
       </c>
       <c r="J153" s="0">
         <v>218.69999999999999</v>
@@ -8149,7 +9754,7 @@
         <v>3</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C154" s="1">
         <v>44997</v>
@@ -8158,7 +9763,7 @@
         <v>152</v>
       </c>
       <c r="E154" s="0" t="s">
-        <v>157</v>
+        <v>602</v>
       </c>
       <c r="F154" s="1">
         <v>0.79097222222222219</v>
@@ -8170,7 +9775,7 @@
         <v>119</v>
       </c>
       <c r="I154" s="0" t="s">
-        <v>376</v>
+        <v>866</v>
       </c>
       <c r="J154" s="0">
         <v>5.2000000000000002</v>
@@ -8193,7 +9798,7 @@
         <v>3</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C155" s="1">
         <v>44997</v>
@@ -8202,7 +9807,7 @@
         <v>883</v>
       </c>
       <c r="E155" s="0" t="s">
-        <v>158</v>
+        <v>603</v>
       </c>
       <c r="F155" s="1">
         <v>0.88263888888888886</v>
@@ -8211,10 +9816,10 @@
         <v>0.96111111111111114</v>
       </c>
       <c r="H155" s="0">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="I155" s="0" t="s">
-        <v>377</v>
+        <v>867</v>
       </c>
       <c r="J155" s="0">
         <v>165.59999999999999</v>
@@ -8237,7 +9842,7 @@
         <v>4</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C156" s="1">
         <v>44990</v>
@@ -8246,7 +9851,7 @@
         <v>2785</v>
       </c>
       <c r="E156" s="0" t="s">
-        <v>159</v>
+        <v>604</v>
       </c>
       <c r="F156" s="1">
         <v>0.98611111111111116</v>
@@ -8258,7 +9863,7 @@
         <v>279</v>
       </c>
       <c r="I156" s="0" t="s">
-        <v>378</v>
+        <v>868</v>
       </c>
       <c r="J156" s="0">
         <v>60.299999999999997</v>
@@ -8281,7 +9886,7 @@
         <v>4</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C157" s="1">
         <v>44991</v>
@@ -8290,7 +9895,7 @@
         <v>3306</v>
       </c>
       <c r="E157" s="0" t="s">
-        <v>160</v>
+        <v>605</v>
       </c>
       <c r="F157" s="1">
         <v>0.21736111111111112</v>
@@ -8302,7 +9907,7 @@
         <v>9</v>
       </c>
       <c r="I157" s="0" t="s">
-        <v>379</v>
+        <v>869</v>
       </c>
       <c r="J157" s="0">
         <v>88.5</v>
@@ -8325,7 +9930,7 @@
         <v>4</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C158" s="1">
         <v>44991</v>
@@ -8334,7 +9939,7 @@
         <v>814</v>
       </c>
       <c r="E158" s="0" t="s">
-        <v>161</v>
+        <v>606</v>
       </c>
       <c r="F158" s="1">
         <v>0.26874999999999999</v>
@@ -8346,7 +9951,7 @@
         <v>7.5</v>
       </c>
       <c r="I158" s="0" t="s">
-        <v>380</v>
+        <v>870</v>
       </c>
       <c r="J158" s="0">
         <v>142.30000000000001</v>
@@ -8369,7 +9974,7 @@
         <v>4</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C159" s="1">
         <v>44991</v>
@@ -8378,7 +9983,7 @@
         <v>814</v>
       </c>
       <c r="E159" s="0" t="s">
-        <v>162</v>
+        <v>607</v>
       </c>
       <c r="F159" s="1">
         <v>0.33055555555555555</v>
@@ -8390,7 +9995,7 @@
         <v>83</v>
       </c>
       <c r="I159" s="0" t="s">
-        <v>381</v>
+        <v>871</v>
       </c>
       <c r="J159" s="0">
         <v>165.80000000000001</v>
@@ -8413,7 +10018,7 @@
         <v>4</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C160" s="1">
         <v>44991</v>
@@ -8422,7 +10027,7 @@
         <v>843</v>
       </c>
       <c r="E160" s="0" t="s">
-        <v>163</v>
+        <v>608</v>
       </c>
       <c r="F160" s="1">
         <v>0.46597222222222223</v>
@@ -8434,7 +10039,7 @@
         <v>9</v>
       </c>
       <c r="I160" s="0" t="s">
-        <v>382</v>
+        <v>872</v>
       </c>
       <c r="J160" s="0">
         <v>165.59999999999999</v>
@@ -8457,7 +10062,7 @@
         <v>4</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C161" s="1">
         <v>44991</v>
@@ -8466,7 +10071,7 @@
         <v>843</v>
       </c>
       <c r="E161" s="0" t="s">
-        <v>164</v>
+        <v>609</v>
       </c>
       <c r="F161" s="1">
         <v>0.55069444444444449</v>
@@ -8478,7 +10083,7 @@
         <v>55</v>
       </c>
       <c r="I161" s="0" t="s">
-        <v>383</v>
+        <v>873</v>
       </c>
       <c r="J161" s="0">
         <v>142.30000000000001</v>
@@ -8501,7 +10106,7 @@
         <v>4</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C162" s="1">
         <v>44991</v>
@@ -8510,7 +10115,7 @@
         <v>850</v>
       </c>
       <c r="E162" s="0" t="s">
-        <v>165</v>
+        <v>610</v>
       </c>
       <c r="F162" s="1">
         <v>0.64375000000000004</v>
@@ -8522,7 +10127,7 @@
         <v>7.5</v>
       </c>
       <c r="I162" s="0" t="s">
-        <v>384</v>
+        <v>874</v>
       </c>
       <c r="J162" s="0">
         <v>142.30000000000001</v>
@@ -8545,7 +10150,7 @@
         <v>4</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C163" s="1">
         <v>44991</v>
@@ -8554,7 +10159,7 @@
         <v>850</v>
       </c>
       <c r="E163" s="0" t="s">
-        <v>166</v>
+        <v>611</v>
       </c>
       <c r="F163" s="1">
         <v>0.7055555555555556</v>
@@ -8566,7 +10171,7 @@
         <v>23</v>
       </c>
       <c r="I163" s="0" t="s">
-        <v>385</v>
+        <v>875</v>
       </c>
       <c r="J163" s="0">
         <v>165.80000000000001</v>
@@ -8589,7 +10194,7 @@
         <v>4</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C164" s="1">
         <v>44991</v>
@@ -8598,7 +10203,7 @@
         <v>875</v>
       </c>
       <c r="E164" s="0" t="s">
-        <v>167</v>
+        <v>612</v>
       </c>
       <c r="F164" s="1">
         <v>0.7993055555555556</v>
@@ -8610,7 +10215,7 @@
         <v>414</v>
       </c>
       <c r="I164" s="0" t="s">
-        <v>386</v>
+        <v>876</v>
       </c>
       <c r="J164" s="0">
         <v>307.89999999999998</v>
@@ -8633,7 +10238,7 @@
         <v>4</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C165" s="1">
         <v>44992</v>
@@ -8642,7 +10247,7 @@
         <v>810</v>
       </c>
       <c r="E165" s="0" t="s">
-        <v>168</v>
+        <v>613</v>
       </c>
       <c r="F165" s="1">
         <v>0.22638888888888889</v>
@@ -8654,7 +10259,7 @@
         <v>7.5</v>
       </c>
       <c r="I165" s="0" t="s">
-        <v>387</v>
+        <v>877</v>
       </c>
       <c r="J165" s="0">
         <v>142.30000000000001</v>
@@ -8677,7 +10282,7 @@
         <v>4</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C166" s="1">
         <v>44992</v>
@@ -8686,7 +10291,7 @@
         <v>810</v>
       </c>
       <c r="E166" s="0" t="s">
-        <v>169</v>
+        <v>614</v>
       </c>
       <c r="F166" s="1">
         <v>0.28888888888888886</v>
@@ -8698,7 +10303,7 @@
         <v>385</v>
       </c>
       <c r="I166" s="0" t="s">
-        <v>388</v>
+        <v>878</v>
       </c>
       <c r="J166" s="0">
         <v>165.80000000000001</v>
@@ -8721,7 +10326,7 @@
         <v>4</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C167" s="1">
         <v>44992</v>
@@ -8730,7 +10335,7 @@
         <v>859</v>
       </c>
       <c r="E167" s="0" t="s">
-        <v>170</v>
+        <v>615</v>
       </c>
       <c r="F167" s="1">
         <v>0.63263888888888886</v>
@@ -8742,7 +10347,7 @@
         <v>9</v>
       </c>
       <c r="I167" s="0" t="s">
-        <v>389</v>
+        <v>879</v>
       </c>
       <c r="J167" s="0">
         <v>165.59999999999999</v>
@@ -8765,7 +10370,7 @@
         <v>4</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C168" s="1">
         <v>44992</v>
@@ -8774,7 +10379,7 @@
         <v>859</v>
       </c>
       <c r="E168" s="0" t="s">
-        <v>171</v>
+        <v>616</v>
       </c>
       <c r="F168" s="1">
         <v>0.71736111111111112</v>
@@ -8786,7 +10391,7 @@
         <v>55</v>
       </c>
       <c r="I168" s="0" t="s">
-        <v>390</v>
+        <v>880</v>
       </c>
       <c r="J168" s="0">
         <v>142.30000000000001</v>
@@ -8809,7 +10414,7 @@
         <v>4</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C169" s="1">
         <v>44992</v>
@@ -8818,7 +10423,7 @@
         <v>866</v>
       </c>
       <c r="E169" s="0" t="s">
-        <v>172</v>
+        <v>617</v>
       </c>
       <c r="F169" s="1">
         <v>0.81041666666666667</v>
@@ -8830,7 +10435,7 @@
         <v>416</v>
       </c>
       <c r="I169" s="0" t="s">
-        <v>391</v>
+        <v>881</v>
       </c>
       <c r="J169" s="0">
         <v>308.10000000000002</v>
@@ -8853,7 +10458,7 @@
         <v>4</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C170" s="1">
         <v>44993</v>
@@ -8862,7 +10467,7 @@
         <v>121</v>
       </c>
       <c r="E170" s="0" t="s">
-        <v>173</v>
+        <v>618</v>
       </c>
       <c r="F170" s="1">
         <v>0.2388888888888889</v>
@@ -8874,7 +10479,7 @@
         <v>24</v>
       </c>
       <c r="I170" s="0" t="s">
-        <v>392</v>
+        <v>882</v>
       </c>
       <c r="J170" s="0">
         <v>223.69999999999999</v>
@@ -8897,7 +10502,7 @@
         <v>4</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C171" s="1">
         <v>44993</v>
@@ -8906,7 +10511,7 @@
         <v>2720</v>
       </c>
       <c r="E171" s="0" t="s">
-        <v>174</v>
+        <v>619</v>
       </c>
       <c r="F171" s="1">
         <v>0.35416666666666669</v>
@@ -8918,7 +10523,7 @@
         <v>20</v>
       </c>
       <c r="I171" s="0" t="s">
-        <v>393</v>
+        <v>883</v>
       </c>
       <c r="J171" s="0">
         <v>60.299999999999997</v>
@@ -8941,7 +10546,7 @@
         <v>4</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C172" s="1">
         <v>44993</v>
@@ -8950,7 +10555,7 @@
         <v>2729</v>
       </c>
       <c r="E172" s="0" t="s">
-        <v>175</v>
+        <v>620</v>
       </c>
       <c r="F172" s="1">
         <v>0.40277777777777779</v>
@@ -8962,7 +10567,7 @@
         <v>60</v>
       </c>
       <c r="I172" s="0" t="s">
-        <v>394</v>
+        <v>884</v>
       </c>
       <c r="J172" s="0">
         <v>60.299999999999997</v>
@@ -8985,7 +10590,7 @@
         <v>4</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C173" s="1">
         <v>44993</v>
@@ -8994,7 +10599,7 @@
         <v>4732</v>
       </c>
       <c r="E173" s="0" t="s">
-        <v>176</v>
+        <v>621</v>
       </c>
       <c r="F173" s="1">
         <v>0.47916666666666669</v>
@@ -9006,7 +10611,7 @@
         <v>35</v>
       </c>
       <c r="I173" s="0" t="s">
-        <v>395</v>
+        <v>885</v>
       </c>
       <c r="J173" s="0">
         <v>60.299999999999997</v>
@@ -9029,7 +10634,7 @@
         <v>4</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C174" s="1">
         <v>44993</v>
@@ -9038,7 +10643,7 @@
         <v>4741</v>
       </c>
       <c r="E174" s="0" t="s">
-        <v>177</v>
+        <v>622</v>
       </c>
       <c r="F174" s="1">
         <v>0.53333333333333333</v>
@@ -9050,7 +10655,7 @@
         <v>83</v>
       </c>
       <c r="I174" s="0" t="s">
-        <v>396</v>
+        <v>886</v>
       </c>
       <c r="J174" s="0">
         <v>60.299999999999997</v>
@@ -9073,7 +10678,7 @@
         <v>4</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C175" s="1">
         <v>44993</v>
@@ -9082,7 +10687,7 @@
         <v>144</v>
       </c>
       <c r="E175" s="0" t="s">
-        <v>178</v>
+        <v>623</v>
       </c>
       <c r="F175" s="1">
         <v>0.62013888888888891</v>
@@ -9094,7 +10699,7 @@
         <v>121</v>
       </c>
       <c r="I175" s="0" t="s">
-        <v>397</v>
+        <v>887</v>
       </c>
       <c r="J175" s="0">
         <v>218.69999999999999</v>
@@ -9117,7 +10722,7 @@
         <v>4</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C176" s="1">
         <v>44993</v>
@@ -9126,7 +10731,7 @@
         <v>71</v>
       </c>
       <c r="E176" s="0" t="s">
-        <v>179</v>
+        <v>624</v>
       </c>
       <c r="F176" s="1">
         <v>0.78888888888888886</v>
@@ -9138,7 +10743,7 @@
         <v>200</v>
       </c>
       <c r="I176" s="0" t="s">
-        <v>398</v>
+        <v>888</v>
       </c>
       <c r="J176" s="0">
         <v>218.5</v>
@@ -9161,7 +10766,7 @@
         <v>4</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C177" s="1">
         <v>44993</v>
@@ -9170,7 +10775,7 @@
         <v>983</v>
       </c>
       <c r="E177" s="0" t="s">
-        <v>180</v>
+        <v>625</v>
       </c>
       <c r="F177" s="1">
         <v>0.99861111111111112</v>
@@ -9182,7 +10787,7 @@
         <v>185</v>
       </c>
       <c r="I177" s="0" t="s">
-        <v>399</v>
+        <v>889</v>
       </c>
       <c r="J177" s="0">
         <v>136.5</v>
@@ -9205,7 +10810,7 @@
         <v>4</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C178" s="1">
         <v>44994</v>
@@ -9214,7 +10819,7 @@
         <v>910</v>
       </c>
       <c r="E178" s="0" t="s">
-        <v>181</v>
+        <v>626</v>
       </c>
       <c r="F178" s="1">
         <v>0.19097222222222221</v>
@@ -9226,7 +10831,7 @@
         <v>16</v>
       </c>
       <c r="I178" s="0" t="s">
-        <v>400</v>
+        <v>890</v>
       </c>
       <c r="J178" s="0">
         <v>136.5</v>
@@ -9249,7 +10854,7 @@
         <v>4</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C179" s="1">
         <v>44994</v>
@@ -9258,7 +10863,7 @@
         <v>10</v>
       </c>
       <c r="E179" s="0" t="s">
-        <v>182</v>
+        <v>627</v>
       </c>
       <c r="F179" s="1">
         <v>0.26597222222222222</v>
@@ -9270,7 +10875,7 @@
         <v>9</v>
       </c>
       <c r="I179" s="0" t="s">
-        <v>401</v>
+        <v>891</v>
       </c>
       <c r="J179" s="0">
         <v>218.69999999999999</v>
@@ -9293,7 +10898,7 @@
         <v>4</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C180" s="1">
         <v>44994</v>
@@ -9302,7 +10907,7 @@
         <v>10</v>
       </c>
       <c r="E180" s="0" t="s">
-        <v>183</v>
+        <v>628</v>
       </c>
       <c r="F180" s="1">
         <v>0.34166666666666667</v>
@@ -9314,7 +10919,7 @@
         <v>483</v>
       </c>
       <c r="I180" s="0" t="s">
-        <v>402</v>
+        <v>892</v>
       </c>
       <c r="J180" s="0">
         <v>11.800000000000001</v>
@@ -9337,7 +10942,7 @@
         <v>4</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C181" s="1">
         <v>44994</v>
@@ -9346,7 +10951,7 @@
         <v>63</v>
       </c>
       <c r="E181" s="0" t="s">
-        <v>184</v>
+        <v>629</v>
       </c>
       <c r="F181" s="1">
         <v>0.68611111111111112</v>
@@ -9358,7 +10963,7 @@
         <v>15</v>
       </c>
       <c r="I181" s="0" t="s">
-        <v>403</v>
+        <v>893</v>
       </c>
       <c r="J181" s="0">
         <v>11.800000000000001</v>
@@ -9381,7 +10986,7 @@
         <v>4</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C182" s="1">
         <v>44994</v>
@@ -9390,7 +10995,7 @@
         <v>63</v>
       </c>
       <c r="E182" s="0" t="s">
-        <v>185</v>
+        <v>630</v>
       </c>
       <c r="F182" s="1">
         <v>0.7055555555555556</v>
@@ -9402,7 +11007,7 @@
         <v>735</v>
       </c>
       <c r="I182" s="0" t="s">
-        <v>404</v>
+        <v>894</v>
       </c>
       <c r="J182" s="0">
         <v>218.5</v>
@@ -9425,7 +11030,7 @@
         <v>4</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C183" s="1">
         <v>44995</v>
@@ -9434,7 +11039,7 @@
         <v>112</v>
       </c>
       <c r="E183" s="0" t="s">
-        <v>186</v>
+        <v>631</v>
       </c>
       <c r="F183" s="1">
         <v>0.28680555555555554</v>
@@ -9446,7 +11051,7 @@
         <v>250</v>
       </c>
       <c r="I183" s="0" t="s">
-        <v>405</v>
+        <v>895</v>
       </c>
       <c r="J183" s="0">
         <v>218.69999999999999</v>
@@ -9469,7 +11074,7 @@
         <v>4</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C184" s="1">
         <v>44995</v>
@@ -9478,7 +11083,7 @@
         <v>149</v>
       </c>
       <c r="E184" s="0" t="s">
-        <v>187</v>
+        <v>632</v>
       </c>
       <c r="F184" s="1">
         <v>0.54513888888888884</v>
@@ -9490,7 +11095,7 @@
         <v>47</v>
       </c>
       <c r="I184" s="0" t="s">
-        <v>406</v>
+        <v>896</v>
       </c>
       <c r="J184" s="0">
         <v>218.5</v>
@@ -9513,7 +11118,7 @@
         <v>4</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C185" s="1">
         <v>44995</v>
@@ -9522,7 +11127,7 @@
         <v>148</v>
       </c>
       <c r="E185" s="0" t="s">
-        <v>188</v>
+        <v>633</v>
       </c>
       <c r="F185" s="1">
         <v>0.66180555555555554</v>
@@ -9534,7 +11139,7 @@
         <v>61</v>
       </c>
       <c r="I185" s="0" t="s">
-        <v>407</v>
+        <v>897</v>
       </c>
       <c r="J185" s="0">
         <v>223.90000000000001</v>
@@ -9557,7 +11162,7 @@
         <v>4</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C186" s="1">
         <v>44995</v>
@@ -9566,7 +11171,7 @@
         <v>875</v>
       </c>
       <c r="E186" s="0" t="s">
-        <v>189</v>
+        <v>634</v>
       </c>
       <c r="F186" s="1">
         <v>0.7993055555555556</v>
@@ -9578,7 +11183,7 @@
         <v>9</v>
       </c>
       <c r="I186" s="0" t="s">
-        <v>408</v>
+        <v>898</v>
       </c>
       <c r="J186" s="0">
         <v>307.89999999999998</v>
@@ -9601,7 +11206,7 @@
         <v>4</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C187" s="1">
         <v>44995</v>
@@ -9610,7 +11215,7 @@
         <v>3383</v>
       </c>
       <c r="E187" s="0" t="s">
-        <v>190</v>
+        <v>635</v>
       </c>
       <c r="F187" s="1">
         <v>0.94513888888888886</v>
@@ -9622,7 +11227,7 @@
         <v>725</v>
       </c>
       <c r="I187" s="0" t="s">
-        <v>409</v>
+        <v>899</v>
       </c>
       <c r="J187" s="0">
         <v>88.5</v>
@@ -9645,7 +11250,7 @@
         <v>4</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C188" s="1">
         <v>44997</v>
@@ -9654,7 +11259,7 @@
         <v>132</v>
       </c>
       <c r="E188" s="0" t="s">
-        <v>191</v>
+        <v>636</v>
       </c>
       <c r="F188" s="1">
         <v>0.49513888888888891</v>
@@ -9666,7 +11271,7 @@
         <v>70</v>
       </c>
       <c r="I188" s="0" t="s">
-        <v>410</v>
+        <v>900</v>
       </c>
       <c r="J188" s="0">
         <v>218.69999999999999</v>
@@ -9689,7 +11294,7 @@
         <v>4</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C189" s="1">
         <v>44997</v>
@@ -9698,7 +11303,7 @@
         <v>157</v>
       </c>
       <c r="E189" s="0" t="s">
-        <v>192</v>
+        <v>637</v>
       </c>
       <c r="F189" s="1">
         <v>0.62847222222222221</v>
@@ -9707,10 +11312,10 @@
         <v>0.71250000000000002</v>
       </c>
       <c r="H189" s="0">
-        <v>412</v>
+        <v>0</v>
       </c>
       <c r="I189" s="0" t="s">
-        <v>411</v>
+        <v>901</v>
       </c>
       <c r="J189" s="0">
         <v>218.5</v>
@@ -9733,7 +11338,7 @@
         <v>5</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C190" s="1">
         <v>44990</v>
@@ -9742,7 +11347,7 @@
         <v>983</v>
       </c>
       <c r="E190" s="0" t="s">
-        <v>193</v>
+        <v>638</v>
       </c>
       <c r="F190" s="1">
         <v>0.99861111111111112</v>
@@ -9754,7 +11359,7 @@
         <v>185</v>
       </c>
       <c r="I190" s="0" t="s">
-        <v>412</v>
+        <v>902</v>
       </c>
       <c r="J190" s="0">
         <v>136.5</v>
@@ -9777,7 +11382,7 @@
         <v>5</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C191" s="1">
         <v>44991</v>
@@ -9786,7 +11391,7 @@
         <v>910</v>
       </c>
       <c r="E191" s="0" t="s">
-        <v>194</v>
+        <v>639</v>
       </c>
       <c r="F191" s="1">
         <v>0.19097222222222221</v>
@@ -9798,7 +11403,7 @@
         <v>16</v>
       </c>
       <c r="I191" s="0" t="s">
-        <v>413</v>
+        <v>903</v>
       </c>
       <c r="J191" s="0">
         <v>136.5</v>
@@ -9821,7 +11426,7 @@
         <v>5</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C192" s="1">
         <v>44991</v>
@@ -9830,7 +11435,7 @@
         <v>10</v>
       </c>
       <c r="E192" s="0" t="s">
-        <v>195</v>
+        <v>640</v>
       </c>
       <c r="F192" s="1">
         <v>0.26597222222222222</v>
@@ -9842,7 +11447,7 @@
         <v>9</v>
       </c>
       <c r="I192" s="0" t="s">
-        <v>414</v>
+        <v>904</v>
       </c>
       <c r="J192" s="0">
         <v>218.69999999999999</v>
@@ -9865,7 +11470,7 @@
         <v>5</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C193" s="1">
         <v>44991</v>
@@ -9874,7 +11479,7 @@
         <v>10</v>
       </c>
       <c r="E193" s="0" t="s">
-        <v>196</v>
+        <v>641</v>
       </c>
       <c r="F193" s="1">
         <v>0.34166666666666667</v>
@@ -9886,7 +11491,7 @@
         <v>483</v>
       </c>
       <c r="I193" s="0" t="s">
-        <v>415</v>
+        <v>905</v>
       </c>
       <c r="J193" s="0">
         <v>11.800000000000001</v>
@@ -9909,7 +11514,7 @@
         <v>5</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C194" s="1">
         <v>44991</v>
@@ -9918,7 +11523,7 @@
         <v>63</v>
       </c>
       <c r="E194" s="0" t="s">
-        <v>197</v>
+        <v>642</v>
       </c>
       <c r="F194" s="1">
         <v>0.68611111111111112</v>
@@ -9930,7 +11535,7 @@
         <v>15</v>
       </c>
       <c r="I194" s="0" t="s">
-        <v>416</v>
+        <v>906</v>
       </c>
       <c r="J194" s="0">
         <v>11.800000000000001</v>
@@ -9953,7 +11558,7 @@
         <v>5</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C195" s="1">
         <v>44991</v>
@@ -9962,7 +11567,7 @@
         <v>63</v>
       </c>
       <c r="E195" s="0" t="s">
-        <v>198</v>
+        <v>643</v>
       </c>
       <c r="F195" s="1">
         <v>0.7055555555555556</v>
@@ -9974,7 +11579,7 @@
         <v>645</v>
       </c>
       <c r="I195" s="0" t="s">
-        <v>417</v>
+        <v>907</v>
       </c>
       <c r="J195" s="0">
         <v>218.5</v>
@@ -9997,7 +11602,7 @@
         <v>5</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C196" s="1">
         <v>44992</v>
@@ -10006,7 +11611,7 @@
         <v>6</v>
       </c>
       <c r="E196" s="0" t="s">
-        <v>199</v>
+        <v>644</v>
       </c>
       <c r="F196" s="1">
         <v>0.22430555555555556</v>
@@ -10018,7 +11623,7 @@
         <v>9</v>
       </c>
       <c r="I196" s="0" t="s">
-        <v>418</v>
+        <v>908</v>
       </c>
       <c r="J196" s="0">
         <v>218.69999999999999</v>
@@ -10041,7 +11646,7 @@
         <v>5</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C197" s="1">
         <v>44992</v>
@@ -10050,7 +11655,7 @@
         <v>6</v>
       </c>
       <c r="E197" s="0" t="s">
-        <v>200</v>
+        <v>645</v>
       </c>
       <c r="F197" s="1">
         <v>0.29999999999999999</v>
@@ -10062,7 +11667,7 @@
         <v>123</v>
       </c>
       <c r="I197" s="0" t="s">
-        <v>419</v>
+        <v>909</v>
       </c>
       <c r="J197" s="0">
         <v>11.800000000000001</v>
@@ -10085,7 +11690,7 @@
         <v>5</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C198" s="1">
         <v>44992</v>
@@ -10094,7 +11699,7 @@
         <v>35</v>
       </c>
       <c r="E198" s="0" t="s">
-        <v>201</v>
+        <v>646</v>
       </c>
       <c r="F198" s="1">
         <v>0.39444444444444443</v>
@@ -10106,7 +11711,7 @@
         <v>15</v>
       </c>
       <c r="I198" s="0" t="s">
-        <v>420</v>
+        <v>910</v>
       </c>
       <c r="J198" s="0">
         <v>11.800000000000001</v>
@@ -10129,7 +11734,7 @@
         <v>5</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C199" s="1">
         <v>44992</v>
@@ -10138,7 +11743,7 @@
         <v>35</v>
       </c>
       <c r="E199" s="0" t="s">
-        <v>202</v>
+        <v>647</v>
       </c>
       <c r="F199" s="1">
         <v>0.41388888888888886</v>
@@ -10150,7 +11755,7 @@
         <v>12</v>
       </c>
       <c r="I199" s="0" t="s">
-        <v>421</v>
+        <v>911</v>
       </c>
       <c r="J199" s="0">
         <v>218.5</v>
@@ -10173,7 +11778,7 @@
         <v>5</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C200" s="1">
         <v>44992</v>
@@ -10182,7 +11787,7 @@
         <v>935</v>
       </c>
       <c r="E200" s="0" t="s">
-        <v>203</v>
+        <v>648</v>
       </c>
       <c r="F200" s="1">
         <v>0.49305555555555558</v>
@@ -10194,7 +11799,7 @@
         <v>13</v>
       </c>
       <c r="I200" s="0" t="s">
-        <v>422</v>
+        <v>912</v>
       </c>
       <c r="J200" s="0">
         <v>136.5</v>
@@ -10217,7 +11822,7 @@
         <v>5</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C201" s="1">
         <v>44992</v>
@@ -10226,7 +11831,7 @@
         <v>946</v>
       </c>
       <c r="E201" s="0" t="s">
-        <v>204</v>
+        <v>649</v>
       </c>
       <c r="F201" s="1">
         <v>0.56597222222222221</v>
@@ -10238,7 +11843,7 @@
         <v>16</v>
       </c>
       <c r="I201" s="0" t="s">
-        <v>423</v>
+        <v>913</v>
       </c>
       <c r="J201" s="0">
         <v>136.5</v>
@@ -10261,7 +11866,7 @@
         <v>5</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C202" s="1">
         <v>44992</v>
@@ -10270,7 +11875,7 @@
         <v>46</v>
       </c>
       <c r="E202" s="0" t="s">
-        <v>205</v>
+        <v>650</v>
       </c>
       <c r="F202" s="1">
         <v>0.64097222222222228</v>
@@ -10282,7 +11887,7 @@
         <v>9</v>
       </c>
       <c r="I202" s="0" t="s">
-        <v>424</v>
+        <v>914</v>
       </c>
       <c r="J202" s="0">
         <v>218.69999999999999</v>
@@ -10305,7 +11910,7 @@
         <v>5</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C203" s="1">
         <v>44992</v>
@@ -10314,7 +11919,7 @@
         <v>46</v>
       </c>
       <c r="E203" s="0" t="s">
-        <v>206</v>
+        <v>651</v>
       </c>
       <c r="F203" s="1">
         <v>0.71666666666666667</v>
@@ -10326,7 +11931,7 @@
         <v>123</v>
       </c>
       <c r="I203" s="0" t="s">
-        <v>425</v>
+        <v>915</v>
       </c>
       <c r="J203" s="0">
         <v>11.800000000000001</v>
@@ -10349,7 +11954,7 @@
         <v>5</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C204" s="1">
         <v>44992</v>
@@ -10358,7 +11963,7 @@
         <v>75</v>
       </c>
       <c r="E204" s="0" t="s">
-        <v>207</v>
+        <v>652</v>
       </c>
       <c r="F204" s="1">
         <v>0.81111111111111112</v>
@@ -10370,7 +11975,7 @@
         <v>12</v>
       </c>
       <c r="I204" s="0" t="s">
-        <v>426</v>
+        <v>916</v>
       </c>
       <c r="J204" s="0">
         <v>230.30000000000001</v>
@@ -10393,7 +11998,7 @@
         <v>5</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C205" s="1">
         <v>44992</v>
@@ -10402,7 +12007,7 @@
         <v>975</v>
       </c>
       <c r="E205" s="0" t="s">
-        <v>208</v>
+        <v>653</v>
       </c>
       <c r="F205" s="1">
         <v>0.90972222222222221</v>
@@ -10414,7 +12019,7 @@
         <v>373</v>
       </c>
       <c r="I205" s="0" t="s">
-        <v>427</v>
+        <v>917</v>
       </c>
       <c r="J205" s="0">
         <v>136.5</v>
@@ -10437,7 +12042,7 @@
         <v>5</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C206" s="1">
         <v>44993</v>
@@ -10446,7 +12051,7 @@
         <v>914</v>
       </c>
       <c r="E206" s="0" t="s">
-        <v>209</v>
+        <v>654</v>
       </c>
       <c r="F206" s="1">
         <v>0.2326388888888889</v>
@@ -10458,7 +12063,7 @@
         <v>16</v>
       </c>
       <c r="I206" s="0" t="s">
-        <v>428</v>
+        <v>918</v>
       </c>
       <c r="J206" s="0">
         <v>136.5</v>
@@ -10481,7 +12086,7 @@
         <v>5</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C207" s="1">
         <v>44993</v>
@@ -10490,7 +12095,7 @@
         <v>14</v>
       </c>
       <c r="E207" s="0" t="s">
-        <v>210</v>
+        <v>655</v>
       </c>
       <c r="F207" s="1">
         <v>0.30763888888888891</v>
@@ -10502,7 +12107,7 @@
         <v>9</v>
       </c>
       <c r="I207" s="0" t="s">
-        <v>429</v>
+        <v>919</v>
       </c>
       <c r="J207" s="0">
         <v>218.69999999999999</v>
@@ -10525,7 +12130,7 @@
         <v>5</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C208" s="1">
         <v>44993</v>
@@ -10534,7 +12139,7 @@
         <v>14</v>
       </c>
       <c r="E208" s="0" t="s">
-        <v>211</v>
+        <v>656</v>
       </c>
       <c r="F208" s="1">
         <v>0.38333333333333336</v>
@@ -10546,7 +12151,7 @@
         <v>123</v>
       </c>
       <c r="I208" s="0" t="s">
-        <v>430</v>
+        <v>920</v>
       </c>
       <c r="J208" s="0">
         <v>11.800000000000001</v>
@@ -10569,7 +12174,7 @@
         <v>5</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C209" s="1">
         <v>44993</v>
@@ -10578,7 +12183,7 @@
         <v>43</v>
       </c>
       <c r="E209" s="0" t="s">
-        <v>212</v>
+        <v>657</v>
       </c>
       <c r="F209" s="1">
         <v>0.4777777777777778</v>
@@ -10590,7 +12195,7 @@
         <v>15</v>
       </c>
       <c r="I209" s="0" t="s">
-        <v>431</v>
+        <v>921</v>
       </c>
       <c r="J209" s="0">
         <v>11.800000000000001</v>
@@ -10613,7 +12218,7 @@
         <v>5</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C210" s="1">
         <v>44993</v>
@@ -10622,7 +12227,7 @@
         <v>43</v>
       </c>
       <c r="E210" s="0" t="s">
-        <v>213</v>
+        <v>658</v>
       </c>
       <c r="F210" s="1">
         <v>0.49722222222222223</v>
@@ -10634,7 +12239,7 @@
         <v>12</v>
       </c>
       <c r="I210" s="0" t="s">
-        <v>432</v>
+        <v>922</v>
       </c>
       <c r="J210" s="0">
         <v>218.5</v>
@@ -10657,7 +12262,7 @@
         <v>5</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C211" s="1">
         <v>44993</v>
@@ -10666,7 +12271,7 @@
         <v>943</v>
       </c>
       <c r="E211" s="0" t="s">
-        <v>214</v>
+        <v>659</v>
       </c>
       <c r="F211" s="1">
         <v>0.57638888888888884</v>
@@ -10678,7 +12283,7 @@
         <v>13</v>
       </c>
       <c r="I211" s="0" t="s">
-        <v>433</v>
+        <v>923</v>
       </c>
       <c r="J211" s="0">
         <v>136.5</v>
@@ -10701,7 +12306,7 @@
         <v>5</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C212" s="1">
         <v>44993</v>
@@ -10710,7 +12315,7 @@
         <v>954</v>
       </c>
       <c r="E212" s="0" t="s">
-        <v>215</v>
+        <v>660</v>
       </c>
       <c r="F212" s="1">
         <v>0.64930555555555558</v>
@@ -10722,7 +12327,7 @@
         <v>16</v>
       </c>
       <c r="I212" s="0" t="s">
-        <v>434</v>
+        <v>924</v>
       </c>
       <c r="J212" s="0">
         <v>136.5</v>
@@ -10745,7 +12350,7 @@
         <v>5</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C213" s="1">
         <v>44993</v>
@@ -10754,7 +12359,7 @@
         <v>54</v>
       </c>
       <c r="E213" s="0" t="s">
-        <v>216</v>
+        <v>661</v>
       </c>
       <c r="F213" s="1">
         <v>0.72430555555555554</v>
@@ -10766,7 +12371,7 @@
         <v>9</v>
       </c>
       <c r="I213" s="0" t="s">
-        <v>435</v>
+        <v>925</v>
       </c>
       <c r="J213" s="0">
         <v>218.69999999999999</v>
@@ -10789,7 +12394,7 @@
         <v>5</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C214" s="1">
         <v>44993</v>
@@ -10798,7 +12403,7 @@
         <v>54</v>
       </c>
       <c r="E214" s="0" t="s">
-        <v>217</v>
+        <v>662</v>
       </c>
       <c r="F214" s="1">
         <v>0.80000000000000004</v>
@@ -10810,7 +12415,7 @@
         <v>135</v>
       </c>
       <c r="I214" s="0" t="s">
-        <v>436</v>
+        <v>926</v>
       </c>
       <c r="J214" s="0">
         <v>11.800000000000001</v>
@@ -10833,7 +12438,7 @@
         <v>5</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C215" s="1">
         <v>44993</v>
@@ -10842,7 +12447,7 @@
         <v>435</v>
       </c>
       <c r="E215" s="0" t="s">
-        <v>218</v>
+        <v>663</v>
       </c>
       <c r="F215" s="1">
         <v>0.90277777777777779</v>
@@ -10854,7 +12459,7 @@
         <v>340</v>
       </c>
       <c r="I215" s="0" t="s">
-        <v>437</v>
+        <v>927</v>
       </c>
       <c r="J215" s="0">
         <v>172.19999999999999</v>
@@ -10877,7 +12482,7 @@
         <v>5</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C216" s="1">
         <v>44994</v>
@@ -10886,7 +12491,7 @@
         <v>911</v>
       </c>
       <c r="E216" s="0" t="s">
-        <v>219</v>
+        <v>664</v>
       </c>
       <c r="F216" s="1">
         <v>0.21736111111111112</v>
@@ -10898,7 +12503,7 @@
         <v>13</v>
       </c>
       <c r="I216" s="0" t="s">
-        <v>438</v>
+        <v>928</v>
       </c>
       <c r="J216" s="0">
         <v>196.80000000000001</v>
@@ -10921,7 +12526,7 @@
         <v>5</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C217" s="1">
         <v>44994</v>
@@ -10930,7 +12535,7 @@
         <v>922</v>
       </c>
       <c r="E217" s="0" t="s">
-        <v>220</v>
+        <v>665</v>
       </c>
       <c r="F217" s="1">
         <v>0.31597222222222221</v>
@@ -10939,10 +12544,10 @@
         <v>0.37986111111111109</v>
       </c>
       <c r="H217" s="0">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I217" s="0" t="s">
-        <v>439</v>
+        <v>929</v>
       </c>
       <c r="J217" s="0">
         <v>136.5</v>
@@ -10957,6 +12562,1986 @@
         <v>80</v>
       </c>
       <c r="N217" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="0">
+        <v>5</v>
+      </c>
+      <c r="B218" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="C218" s="1">
+        <v>44994</v>
+      </c>
+      <c r="D218" s="0">
+        <v>22</v>
+      </c>
+      <c r="E218" s="0" t="s">
+        <v>666</v>
+      </c>
+      <c r="F218" s="1">
+        <v>0.39097222222222222</v>
+      </c>
+      <c r="G218" s="1">
+        <v>0.46041666666666664</v>
+      </c>
+      <c r="H218" s="0">
+        <v>9</v>
+      </c>
+      <c r="I218" s="0" t="s">
+        <v>930</v>
+      </c>
+      <c r="J218" s="0">
+        <v>218.69999999999999</v>
+      </c>
+      <c r="K218" s="0">
+        <v>3889.9000000000001</v>
+      </c>
+      <c r="L218" s="0">
+        <v>1</v>
+      </c>
+      <c r="M218" s="0">
+        <v>80</v>
+      </c>
+      <c r="N218" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="0">
+        <v>5</v>
+      </c>
+      <c r="B219" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="C219" s="1">
+        <v>44994</v>
+      </c>
+      <c r="D219" s="0">
+        <v>22</v>
+      </c>
+      <c r="E219" s="0" t="s">
+        <v>667</v>
+      </c>
+      <c r="F219" s="1">
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="G219" s="1">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="H219" s="0">
+        <v>123</v>
+      </c>
+      <c r="I219" s="0" t="s">
+        <v>931</v>
+      </c>
+      <c r="J219" s="0">
+        <v>11.800000000000001</v>
+      </c>
+      <c r="K219" s="0">
+        <v>3901.6999999999998</v>
+      </c>
+      <c r="L219" s="0">
+        <v>1</v>
+      </c>
+      <c r="M219" s="0">
+        <v>80</v>
+      </c>
+      <c r="N219" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="0">
+        <v>5</v>
+      </c>
+      <c r="B220" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="C220" s="1">
+        <v>44994</v>
+      </c>
+      <c r="D220" s="0">
+        <v>51</v>
+      </c>
+      <c r="E220" s="0" t="s">
+        <v>668</v>
+      </c>
+      <c r="F220" s="1">
+        <v>0.56111111111111112</v>
+      </c>
+      <c r="G220" s="1">
+        <v>0.57013888888888886</v>
+      </c>
+      <c r="H220" s="0">
+        <v>15</v>
+      </c>
+      <c r="I220" s="0" t="s">
+        <v>932</v>
+      </c>
+      <c r="J220" s="0">
+        <v>11.800000000000001</v>
+      </c>
+      <c r="K220" s="0">
+        <v>3913.5</v>
+      </c>
+      <c r="L220" s="0">
+        <v>1</v>
+      </c>
+      <c r="M220" s="0">
+        <v>80</v>
+      </c>
+      <c r="N220" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="0">
+        <v>5</v>
+      </c>
+      <c r="B221" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="C221" s="1">
+        <v>44994</v>
+      </c>
+      <c r="D221" s="0">
+        <v>51</v>
+      </c>
+      <c r="E221" s="0" t="s">
+        <v>669</v>
+      </c>
+      <c r="F221" s="1">
+        <v>0.5805555555555556</v>
+      </c>
+      <c r="G221" s="1">
+        <v>0.65138888888888891</v>
+      </c>
+      <c r="H221" s="0">
+        <v>12</v>
+      </c>
+      <c r="I221" s="0" t="s">
+        <v>933</v>
+      </c>
+      <c r="J221" s="0">
+        <v>218.5</v>
+      </c>
+      <c r="K221" s="0">
+        <v>4132</v>
+      </c>
+      <c r="L221" s="0">
+        <v>1</v>
+      </c>
+      <c r="M221" s="0">
+        <v>80</v>
+      </c>
+      <c r="N221" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="0">
+        <v>5</v>
+      </c>
+      <c r="B222" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="C222" s="1">
+        <v>44994</v>
+      </c>
+      <c r="D222" s="0">
+        <v>951</v>
+      </c>
+      <c r="E222" s="0" t="s">
+        <v>670</v>
+      </c>
+      <c r="F222" s="1">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="G222" s="1">
+        <v>0.72361111111111109</v>
+      </c>
+      <c r="H222" s="0">
+        <v>13</v>
+      </c>
+      <c r="I222" s="0" t="s">
+        <v>934</v>
+      </c>
+      <c r="J222" s="0">
+        <v>136.5</v>
+      </c>
+      <c r="K222" s="0">
+        <v>4268.5</v>
+      </c>
+      <c r="L222" s="0">
+        <v>1</v>
+      </c>
+      <c r="M222" s="0">
+        <v>80</v>
+      </c>
+      <c r="N222" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="0">
+        <v>5</v>
+      </c>
+      <c r="B223" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="C223" s="1">
+        <v>44994</v>
+      </c>
+      <c r="D223" s="0">
+        <v>962</v>
+      </c>
+      <c r="E223" s="0" t="s">
+        <v>671</v>
+      </c>
+      <c r="F223" s="1">
+        <v>0.73263888888888884</v>
+      </c>
+      <c r="G223" s="1">
+        <v>0.79652777777777772</v>
+      </c>
+      <c r="H223" s="0">
+        <v>16</v>
+      </c>
+      <c r="I223" s="0" t="s">
+        <v>935</v>
+      </c>
+      <c r="J223" s="0">
+        <v>136.5</v>
+      </c>
+      <c r="K223" s="0">
+        <v>4405</v>
+      </c>
+      <c r="L223" s="0">
+        <v>1</v>
+      </c>
+      <c r="M223" s="0">
+        <v>80</v>
+      </c>
+      <c r="N223" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="0">
+        <v>5</v>
+      </c>
+      <c r="B224" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="C224" s="1">
+        <v>44994</v>
+      </c>
+      <c r="D224" s="0">
+        <v>62</v>
+      </c>
+      <c r="E224" s="0" t="s">
+        <v>672</v>
+      </c>
+      <c r="F224" s="1">
+        <v>0.80763888888888891</v>
+      </c>
+      <c r="G224" s="1">
+        <v>0.87708333333333333</v>
+      </c>
+      <c r="H224" s="0">
+        <v>9</v>
+      </c>
+      <c r="I224" s="0" t="s">
+        <v>936</v>
+      </c>
+      <c r="J224" s="0">
+        <v>218.69999999999999</v>
+      </c>
+      <c r="K224" s="0">
+        <v>4623.6999999999998</v>
+      </c>
+      <c r="L224" s="0">
+        <v>1</v>
+      </c>
+      <c r="M224" s="0">
+        <v>80</v>
+      </c>
+      <c r="N224" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="0">
+        <v>5</v>
+      </c>
+      <c r="B225" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="C225" s="1">
+        <v>44994</v>
+      </c>
+      <c r="D225" s="0">
+        <v>62</v>
+      </c>
+      <c r="E225" s="0" t="s">
+        <v>673</v>
+      </c>
+      <c r="F225" s="1">
+        <v>0.8833333333333333</v>
+      </c>
+      <c r="G225" s="1">
+        <v>0.89236111111111116</v>
+      </c>
+      <c r="H225" s="0">
+        <v>135</v>
+      </c>
+      <c r="I225" s="0" t="s">
+        <v>937</v>
+      </c>
+      <c r="J225" s="0">
+        <v>11.800000000000001</v>
+      </c>
+      <c r="K225" s="0">
+        <v>4635.5</v>
+      </c>
+      <c r="L225" s="0">
+        <v>1</v>
+      </c>
+      <c r="M225" s="0">
+        <v>80</v>
+      </c>
+      <c r="N225" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="0">
+        <v>5</v>
+      </c>
+      <c r="B226" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="C226" s="1">
+        <v>44994</v>
+      </c>
+      <c r="D226" s="0">
+        <v>497</v>
+      </c>
+      <c r="E226" s="0" t="s">
+        <v>674</v>
+      </c>
+      <c r="F226" s="1">
+        <v>0.98611111111111116</v>
+      </c>
+      <c r="G226" s="1">
+        <v>0.99513888888888891</v>
+      </c>
+      <c r="H226" s="0">
+        <v>8</v>
+      </c>
+      <c r="I226" s="0" t="s">
+        <v>938</v>
+      </c>
+      <c r="J226" s="0">
+        <v>11.800000000000001</v>
+      </c>
+      <c r="K226" s="0">
+        <v>4647.3000000000002</v>
+      </c>
+      <c r="L226" s="0">
+        <v>1</v>
+      </c>
+      <c r="M226" s="0">
+        <v>80</v>
+      </c>
+      <c r="N226" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="0">
+        <v>5</v>
+      </c>
+      <c r="B227" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="C227" s="1">
+        <v>44995</v>
+      </c>
+      <c r="D227" s="0">
+        <v>499</v>
+      </c>
+      <c r="E227" s="0" t="s">
+        <v>675</v>
+      </c>
+      <c r="F227" s="1">
+        <v>0.00069444444444444447</v>
+      </c>
+      <c r="G227" s="1">
+        <v>0.065972222222222224</v>
+      </c>
+      <c r="H227" s="0">
+        <v>201</v>
+      </c>
+      <c r="I227" s="0" t="s">
+        <v>939</v>
+      </c>
+      <c r="J227" s="0">
+        <v>160.40000000000001</v>
+      </c>
+      <c r="K227" s="0">
+        <v>4807.6999999999998</v>
+      </c>
+      <c r="L227" s="0">
+        <v>1</v>
+      </c>
+      <c r="M227" s="0">
+        <v>80</v>
+      </c>
+      <c r="N227" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="0">
+        <v>5</v>
+      </c>
+      <c r="B228" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="C228" s="1">
+        <v>44995</v>
+      </c>
+      <c r="D228" s="0">
+        <v>802</v>
+      </c>
+      <c r="E228" s="0" t="s">
+        <v>676</v>
+      </c>
+      <c r="F228" s="1">
+        <v>0.20555555555555555</v>
+      </c>
+      <c r="G228" s="1">
+        <v>0.27152777777777776</v>
+      </c>
+      <c r="H228" s="0">
+        <v>4</v>
+      </c>
+      <c r="I228" s="0" t="s">
+        <v>940</v>
+      </c>
+      <c r="J228" s="0">
+        <v>160.59999999999999</v>
+      </c>
+      <c r="K228" s="0">
+        <v>4968.3000000000002</v>
+      </c>
+      <c r="L228" s="0">
+        <v>1</v>
+      </c>
+      <c r="M228" s="0">
+        <v>80</v>
+      </c>
+      <c r="N228" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="0">
+        <v>5</v>
+      </c>
+      <c r="B229" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="C229" s="1">
+        <v>44995</v>
+      </c>
+      <c r="D229" s="0">
+        <v>3402</v>
+      </c>
+      <c r="E229" s="0" t="s">
+        <v>677</v>
+      </c>
+      <c r="F229" s="1">
+        <v>0.27430555555555558</v>
+      </c>
+      <c r="G229" s="1">
+        <v>0.30486111111111114</v>
+      </c>
+      <c r="H229" s="0">
+        <v>22</v>
+      </c>
+      <c r="I229" s="0" t="s">
+        <v>941</v>
+      </c>
+      <c r="J229" s="0">
+        <v>46.200000000000003</v>
+      </c>
+      <c r="K229" s="0">
+        <v>5014.5</v>
+      </c>
+      <c r="L229" s="0">
+        <v>1</v>
+      </c>
+      <c r="M229" s="0">
+        <v>80</v>
+      </c>
+      <c r="N229" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="0">
+        <v>5</v>
+      </c>
+      <c r="B230" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="C230" s="1">
+        <v>44995</v>
+      </c>
+      <c r="D230" s="0">
+        <v>3431</v>
+      </c>
+      <c r="E230" s="0" t="s">
+        <v>678</v>
+      </c>
+      <c r="F230" s="1">
+        <v>0.32013888888888886</v>
+      </c>
+      <c r="G230" s="1">
+        <v>0.35069444444444442</v>
+      </c>
+      <c r="H230" s="0">
+        <v>4</v>
+      </c>
+      <c r="I230" s="0" t="s">
+        <v>942</v>
+      </c>
+      <c r="J230" s="0">
+        <v>46.200000000000003</v>
+      </c>
+      <c r="K230" s="0">
+        <v>5060.6999999999998</v>
+      </c>
+      <c r="L230" s="0">
+        <v>1</v>
+      </c>
+      <c r="M230" s="0">
+        <v>80</v>
+      </c>
+      <c r="N230" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="0">
+        <v>5</v>
+      </c>
+      <c r="B231" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="C231" s="1">
+        <v>44995</v>
+      </c>
+      <c r="D231" s="0">
+        <v>831</v>
+      </c>
+      <c r="E231" s="0" t="s">
+        <v>679</v>
+      </c>
+      <c r="F231" s="1">
+        <v>0.35347222222222224</v>
+      </c>
+      <c r="G231" s="1">
+        <v>0.41944444444444445</v>
+      </c>
+      <c r="H231" s="0">
+        <v>9</v>
+      </c>
+      <c r="I231" s="0" t="s">
+        <v>943</v>
+      </c>
+      <c r="J231" s="0">
+        <v>160.40000000000001</v>
+      </c>
+      <c r="K231" s="0">
+        <v>5221.1000000000004</v>
+      </c>
+      <c r="L231" s="0">
+        <v>1</v>
+      </c>
+      <c r="M231" s="0">
+        <v>80</v>
+      </c>
+      <c r="N231" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="0">
+        <v>5</v>
+      </c>
+      <c r="B232" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="C232" s="1">
+        <v>44995</v>
+      </c>
+      <c r="D232" s="0">
+        <v>831</v>
+      </c>
+      <c r="E232" s="0" t="s">
+        <v>680</v>
+      </c>
+      <c r="F232" s="1">
+        <v>0.42569444444444443</v>
+      </c>
+      <c r="G232" s="1">
+        <v>0.48055555555555557</v>
+      </c>
+      <c r="H232" s="0">
+        <v>55</v>
+      </c>
+      <c r="I232" s="0" t="s">
+        <v>944</v>
+      </c>
+      <c r="J232" s="0">
+        <v>142.30000000000001</v>
+      </c>
+      <c r="K232" s="0">
+        <v>5363.3999999999996</v>
+      </c>
+      <c r="L232" s="0">
+        <v>1</v>
+      </c>
+      <c r="M232" s="0">
+        <v>80</v>
+      </c>
+      <c r="N232" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="0">
+        <v>5</v>
+      </c>
+      <c r="B233" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="C233" s="1">
+        <v>44995</v>
+      </c>
+      <c r="D233" s="0">
+        <v>838</v>
+      </c>
+      <c r="E233" s="0" t="s">
+        <v>681</v>
+      </c>
+      <c r="F233" s="1">
+        <v>0.51875000000000004</v>
+      </c>
+      <c r="G233" s="1">
+        <v>0.57534722222222223</v>
+      </c>
+      <c r="H233" s="0">
+        <v>7.5</v>
+      </c>
+      <c r="I233" s="0" t="s">
+        <v>945</v>
+      </c>
+      <c r="J233" s="0">
+        <v>142.30000000000001</v>
+      </c>
+      <c r="K233" s="0">
+        <v>5505.6999999999998</v>
+      </c>
+      <c r="L233" s="0">
+        <v>1</v>
+      </c>
+      <c r="M233" s="0">
+        <v>80</v>
+      </c>
+      <c r="N233" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="0">
+        <v>5</v>
+      </c>
+      <c r="B234" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="C234" s="1">
+        <v>44995</v>
+      </c>
+      <c r="D234" s="0">
+        <v>838</v>
+      </c>
+      <c r="E234" s="0" t="s">
+        <v>682</v>
+      </c>
+      <c r="F234" s="1">
+        <v>0.5805555555555556</v>
+      </c>
+      <c r="G234" s="1">
+        <v>0.64652777777777781</v>
+      </c>
+      <c r="H234" s="0">
+        <v>4</v>
+      </c>
+      <c r="I234" s="0" t="s">
+        <v>946</v>
+      </c>
+      <c r="J234" s="0">
+        <v>160.59999999999999</v>
+      </c>
+      <c r="K234" s="0">
+        <v>5666.3000000000002</v>
+      </c>
+      <c r="L234" s="0">
+        <v>1</v>
+      </c>
+      <c r="M234" s="0">
+        <v>80</v>
+      </c>
+      <c r="N234" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="0">
+        <v>5</v>
+      </c>
+      <c r="B235" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="C235" s="1">
+        <v>44995</v>
+      </c>
+      <c r="D235" s="0">
+        <v>3438</v>
+      </c>
+      <c r="E235" s="0" t="s">
+        <v>683</v>
+      </c>
+      <c r="F235" s="1">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="G235" s="1">
+        <v>0.68125000000000002</v>
+      </c>
+      <c r="H235" s="0">
+        <v>20</v>
+      </c>
+      <c r="I235" s="0" t="s">
+        <v>947</v>
+      </c>
+      <c r="J235" s="0">
+        <v>46.200000000000003</v>
+      </c>
+      <c r="K235" s="0">
+        <v>5712.5</v>
+      </c>
+      <c r="L235" s="0">
+        <v>1</v>
+      </c>
+      <c r="M235" s="0">
+        <v>80</v>
+      </c>
+      <c r="N235" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="0">
+        <v>5</v>
+      </c>
+      <c r="B236" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="C236" s="1">
+        <v>44995</v>
+      </c>
+      <c r="D236" s="0">
+        <v>3467</v>
+      </c>
+      <c r="E236" s="0" t="s">
+        <v>684</v>
+      </c>
+      <c r="F236" s="1">
+        <v>0.69513888888888886</v>
+      </c>
+      <c r="G236" s="1">
+        <v>0.72569444444444442</v>
+      </c>
+      <c r="H236" s="0">
+        <v>4</v>
+      </c>
+      <c r="I236" s="0" t="s">
+        <v>948</v>
+      </c>
+      <c r="J236" s="0">
+        <v>46.200000000000003</v>
+      </c>
+      <c r="K236" s="0">
+        <v>5758.6999999999998</v>
+      </c>
+      <c r="L236" s="0">
+        <v>1</v>
+      </c>
+      <c r="M236" s="0">
+        <v>80</v>
+      </c>
+      <c r="N236" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="0">
+        <v>5</v>
+      </c>
+      <c r="B237" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="C237" s="1">
+        <v>44995</v>
+      </c>
+      <c r="D237" s="0">
+        <v>867</v>
+      </c>
+      <c r="E237" s="0" t="s">
+        <v>685</v>
+      </c>
+      <c r="F237" s="1">
+        <v>0.72847222222222219</v>
+      </c>
+      <c r="G237" s="1">
+        <v>0.7944444444444444</v>
+      </c>
+      <c r="H237" s="0">
+        <v>9</v>
+      </c>
+      <c r="I237" s="0" t="s">
+        <v>949</v>
+      </c>
+      <c r="J237" s="0">
+        <v>160.40000000000001</v>
+      </c>
+      <c r="K237" s="0">
+        <v>5919.1000000000004</v>
+      </c>
+      <c r="L237" s="0">
+        <v>1</v>
+      </c>
+      <c r="M237" s="0">
+        <v>80</v>
+      </c>
+      <c r="N237" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="0">
+        <v>5</v>
+      </c>
+      <c r="B238" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="C238" s="1">
+        <v>44995</v>
+      </c>
+      <c r="D238" s="0">
+        <v>867</v>
+      </c>
+      <c r="E238" s="0" t="s">
+        <v>686</v>
+      </c>
+      <c r="F238" s="1">
+        <v>0.80069444444444449</v>
+      </c>
+      <c r="G238" s="1">
+        <v>0.85555555555555551</v>
+      </c>
+      <c r="H238" s="0">
+        <v>9</v>
+      </c>
+      <c r="I238" s="0" t="s">
+        <v>950</v>
+      </c>
+      <c r="J238" s="0">
+        <v>142.30000000000001</v>
+      </c>
+      <c r="K238" s="0">
+        <v>6061.3999999999996</v>
+      </c>
+      <c r="L238" s="0">
+        <v>1</v>
+      </c>
+      <c r="M238" s="0">
+        <v>80</v>
+      </c>
+      <c r="N238" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="0">
+        <v>5</v>
+      </c>
+      <c r="B239" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="C239" s="1">
+        <v>44995</v>
+      </c>
+      <c r="D239" s="0">
+        <v>3375</v>
+      </c>
+      <c r="E239" s="0" t="s">
+        <v>687</v>
+      </c>
+      <c r="F239" s="1">
+        <v>0.8618055555555556</v>
+      </c>
+      <c r="G239" s="1">
+        <v>0.90833333333333333</v>
+      </c>
+      <c r="H239" s="0">
+        <v>5</v>
+      </c>
+      <c r="I239" s="0" t="s">
+        <v>951</v>
+      </c>
+      <c r="J239" s="0">
+        <v>88.5</v>
+      </c>
+      <c r="K239" s="0">
+        <v>6149.8999999999996</v>
+      </c>
+      <c r="L239" s="0">
+        <v>1</v>
+      </c>
+      <c r="M239" s="0">
+        <v>80</v>
+      </c>
+      <c r="N239" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="0">
+        <v>5</v>
+      </c>
+      <c r="B240" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="C240" s="1">
+        <v>44995</v>
+      </c>
+      <c r="D240" s="0">
+        <v>472</v>
+      </c>
+      <c r="E240" s="0" t="s">
+        <v>688</v>
+      </c>
+      <c r="F240" s="1">
+        <v>0.91180555555555554</v>
+      </c>
+      <c r="G240" s="1">
+        <v>0</v>
+      </c>
+      <c r="H240" s="0">
+        <v>11</v>
+      </c>
+      <c r="I240" s="0" t="s">
+        <v>952</v>
+      </c>
+      <c r="J240" s="0">
+        <v>220.90000000000001</v>
+      </c>
+      <c r="K240" s="0">
+        <v>6370.8000000000002</v>
+      </c>
+      <c r="L240" s="0">
+        <v>1</v>
+      </c>
+      <c r="M240" s="0">
+        <v>80</v>
+      </c>
+      <c r="N240" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="0">
+        <v>5</v>
+      </c>
+      <c r="B241" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="C241" s="1">
+        <v>44996</v>
+      </c>
+      <c r="D241" s="0">
+        <v>474</v>
+      </c>
+      <c r="E241" s="0" t="s">
+        <v>689</v>
+      </c>
+      <c r="F241" s="1">
+        <v>0.0076388888888888886</v>
+      </c>
+      <c r="G241" s="1">
+        <v>0.016666666666666666</v>
+      </c>
+      <c r="H241" s="0">
+        <v>132</v>
+      </c>
+      <c r="I241" s="0" t="s">
+        <v>953</v>
+      </c>
+      <c r="J241" s="0">
+        <v>11.800000000000001</v>
+      </c>
+      <c r="K241" s="0">
+        <v>6382.6000000000004</v>
+      </c>
+      <c r="L241" s="0">
+        <v>1</v>
+      </c>
+      <c r="M241" s="0">
+        <v>80</v>
+      </c>
+      <c r="N241" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="0">
+        <v>5</v>
+      </c>
+      <c r="B242" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="C242" s="1">
+        <v>44996</v>
+      </c>
+      <c r="D242" s="0">
+        <v>411</v>
+      </c>
+      <c r="E242" s="0" t="s">
+        <v>690</v>
+      </c>
+      <c r="F242" s="1">
+        <v>0.10833333333333334</v>
+      </c>
+      <c r="G242" s="1">
+        <v>0.11944444444444445</v>
+      </c>
+      <c r="H242" s="0">
+        <v>9</v>
+      </c>
+      <c r="I242" s="0" t="s">
+        <v>954</v>
+      </c>
+      <c r="J242" s="0">
+        <v>11.800000000000001</v>
+      </c>
+      <c r="K242" s="0">
+        <v>6394.3999999999996</v>
+      </c>
+      <c r="L242" s="0">
+        <v>1</v>
+      </c>
+      <c r="M242" s="0">
+        <v>80</v>
+      </c>
+      <c r="N242" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="0">
+        <v>5</v>
+      </c>
+      <c r="B243" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="C243" s="1">
+        <v>44996</v>
+      </c>
+      <c r="D243" s="0">
+        <v>411</v>
+      </c>
+      <c r="E243" s="0" t="s">
+        <v>691</v>
+      </c>
+      <c r="F243" s="1">
+        <v>0.12569444444444444</v>
+      </c>
+      <c r="G243" s="1">
+        <v>0.21319444444444444</v>
+      </c>
+      <c r="H243" s="0">
+        <v>46</v>
+      </c>
+      <c r="I243" s="0" t="s">
+        <v>955</v>
+      </c>
+      <c r="J243" s="0">
+        <v>220.69999999999999</v>
+      </c>
+      <c r="K243" s="0">
+        <v>6615.1000000000004</v>
+      </c>
+      <c r="L243" s="0">
+        <v>1</v>
+      </c>
+      <c r="M243" s="0">
+        <v>80</v>
+      </c>
+      <c r="N243" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="0">
+        <v>5</v>
+      </c>
+      <c r="B244" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="C244" s="1">
+        <v>44996</v>
+      </c>
+      <c r="D244" s="0">
+        <v>408</v>
+      </c>
+      <c r="E244" s="0" t="s">
+        <v>692</v>
+      </c>
+      <c r="F244" s="1">
+        <v>0.24513888888888888</v>
+      </c>
+      <c r="G244" s="1">
+        <v>0.34999999999999998</v>
+      </c>
+      <c r="H244" s="0">
+        <v>184</v>
+      </c>
+      <c r="I244" s="0" t="s">
+        <v>956</v>
+      </c>
+      <c r="J244" s="0">
+        <v>232.69999999999999</v>
+      </c>
+      <c r="K244" s="0">
+        <v>6847.8000000000002</v>
+      </c>
+      <c r="L244" s="0">
+        <v>1</v>
+      </c>
+      <c r="M244" s="0">
+        <v>80</v>
+      </c>
+      <c r="N244" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="0">
+        <v>5</v>
+      </c>
+      <c r="B245" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="C245" s="1">
+        <v>44996</v>
+      </c>
+      <c r="D245" s="0">
+        <v>43</v>
+      </c>
+      <c r="E245" s="0" t="s">
+        <v>693</v>
+      </c>
+      <c r="F245" s="1">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="G245" s="1">
+        <v>0.48680555555555555</v>
+      </c>
+      <c r="H245" s="0">
+        <v>15</v>
+      </c>
+      <c r="I245" s="0" t="s">
+        <v>957</v>
+      </c>
+      <c r="J245" s="0">
+        <v>11.800000000000001</v>
+      </c>
+      <c r="K245" s="0">
+        <v>6859.6000000000004</v>
+      </c>
+      <c r="L245" s="0">
+        <v>1</v>
+      </c>
+      <c r="M245" s="0">
+        <v>80</v>
+      </c>
+      <c r="N245" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="0">
+        <v>5</v>
+      </c>
+      <c r="B246" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="C246" s="1">
+        <v>44996</v>
+      </c>
+      <c r="D246" s="0">
+        <v>43</v>
+      </c>
+      <c r="E246" s="0" t="s">
+        <v>694</v>
+      </c>
+      <c r="F246" s="1">
+        <v>0.49722222222222223</v>
+      </c>
+      <c r="G246" s="1">
+        <v>0.56805555555555554</v>
+      </c>
+      <c r="H246" s="0">
+        <v>12</v>
+      </c>
+      <c r="I246" s="0" t="s">
+        <v>958</v>
+      </c>
+      <c r="J246" s="0">
+        <v>218.5</v>
+      </c>
+      <c r="K246" s="0">
+        <v>7078.1000000000004</v>
+      </c>
+      <c r="L246" s="0">
+        <v>1</v>
+      </c>
+      <c r="M246" s="0">
+        <v>80</v>
+      </c>
+      <c r="N246" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="0">
+        <v>5</v>
+      </c>
+      <c r="B247" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="C247" s="1">
+        <v>44996</v>
+      </c>
+      <c r="D247" s="0">
+        <v>943</v>
+      </c>
+      <c r="E247" s="0" t="s">
+        <v>695</v>
+      </c>
+      <c r="F247" s="1">
+        <v>0.57638888888888884</v>
+      </c>
+      <c r="G247" s="1">
+        <v>0.64027777777777772</v>
+      </c>
+      <c r="H247" s="0">
+        <v>13</v>
+      </c>
+      <c r="I247" s="0" t="s">
+        <v>959</v>
+      </c>
+      <c r="J247" s="0">
+        <v>136.5</v>
+      </c>
+      <c r="K247" s="0">
+        <v>7214.6000000000004</v>
+      </c>
+      <c r="L247" s="0">
+        <v>1</v>
+      </c>
+      <c r="M247" s="0">
+        <v>80</v>
+      </c>
+      <c r="N247" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="0">
+        <v>5</v>
+      </c>
+      <c r="B248" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="C248" s="1">
+        <v>44996</v>
+      </c>
+      <c r="D248" s="0">
+        <v>954</v>
+      </c>
+      <c r="E248" s="0" t="s">
+        <v>696</v>
+      </c>
+      <c r="F248" s="1">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="G248" s="1">
+        <v>0.71319444444444446</v>
+      </c>
+      <c r="H248" s="0">
+        <v>16</v>
+      </c>
+      <c r="I248" s="0" t="s">
+        <v>960</v>
+      </c>
+      <c r="J248" s="0">
+        <v>136.5</v>
+      </c>
+      <c r="K248" s="0">
+        <v>7351.1000000000004</v>
+      </c>
+      <c r="L248" s="0">
+        <v>1</v>
+      </c>
+      <c r="M248" s="0">
+        <v>80</v>
+      </c>
+      <c r="N248" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="0">
+        <v>5</v>
+      </c>
+      <c r="B249" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="C249" s="1">
+        <v>44996</v>
+      </c>
+      <c r="D249" s="0">
+        <v>54</v>
+      </c>
+      <c r="E249" s="0" t="s">
+        <v>697</v>
+      </c>
+      <c r="F249" s="1">
+        <v>0.72430555555555554</v>
+      </c>
+      <c r="G249" s="1">
+        <v>0.79374999999999996</v>
+      </c>
+      <c r="H249" s="0">
+        <v>9</v>
+      </c>
+      <c r="I249" s="0" t="s">
+        <v>961</v>
+      </c>
+      <c r="J249" s="0">
+        <v>218.69999999999999</v>
+      </c>
+      <c r="K249" s="0">
+        <v>7569.8000000000002</v>
+      </c>
+      <c r="L249" s="0">
+        <v>1</v>
+      </c>
+      <c r="M249" s="0">
+        <v>80</v>
+      </c>
+      <c r="N249" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="0">
+        <v>5</v>
+      </c>
+      <c r="B250" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="C250" s="1">
+        <v>44996</v>
+      </c>
+      <c r="D250" s="0">
+        <v>54</v>
+      </c>
+      <c r="E250" s="0" t="s">
+        <v>698</v>
+      </c>
+      <c r="F250" s="1">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="G250" s="1">
+        <v>0.80902777777777779</v>
+      </c>
+      <c r="H250" s="0">
+        <v>255</v>
+      </c>
+      <c r="I250" s="0" t="s">
+        <v>962</v>
+      </c>
+      <c r="J250" s="0">
+        <v>11.800000000000001</v>
+      </c>
+      <c r="K250" s="0">
+        <v>7581.6000000000004</v>
+      </c>
+      <c r="L250" s="0">
+        <v>1</v>
+      </c>
+      <c r="M250" s="0">
+        <v>80</v>
+      </c>
+      <c r="N250" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="0">
+        <v>5</v>
+      </c>
+      <c r="B251" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="C251" s="1">
+        <v>44996</v>
+      </c>
+      <c r="D251" s="0">
+        <v>497</v>
+      </c>
+      <c r="E251" s="0" t="s">
+        <v>699</v>
+      </c>
+      <c r="F251" s="1">
+        <v>0.98611111111111116</v>
+      </c>
+      <c r="G251" s="1">
+        <v>0.99513888888888891</v>
+      </c>
+      <c r="H251" s="0">
+        <v>8</v>
+      </c>
+      <c r="I251" s="0" t="s">
+        <v>963</v>
+      </c>
+      <c r="J251" s="0">
+        <v>11.800000000000001</v>
+      </c>
+      <c r="K251" s="0">
+        <v>7593.3999999999996</v>
+      </c>
+      <c r="L251" s="0">
+        <v>1</v>
+      </c>
+      <c r="M251" s="0">
+        <v>80</v>
+      </c>
+      <c r="N251" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="0">
+        <v>5</v>
+      </c>
+      <c r="B252" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="C252" s="1">
+        <v>44997</v>
+      </c>
+      <c r="D252" s="0">
+        <v>499</v>
+      </c>
+      <c r="E252" s="0" t="s">
+        <v>700</v>
+      </c>
+      <c r="F252" s="1">
+        <v>0.00069444444444444447</v>
+      </c>
+      <c r="G252" s="1">
+        <v>0.065972222222222224</v>
+      </c>
+      <c r="H252" s="0">
+        <v>230</v>
+      </c>
+      <c r="I252" s="0" t="s">
+        <v>964</v>
+      </c>
+      <c r="J252" s="0">
+        <v>160.40000000000001</v>
+      </c>
+      <c r="K252" s="0">
+        <v>7753.8000000000002</v>
+      </c>
+      <c r="L252" s="0">
+        <v>1</v>
+      </c>
+      <c r="M252" s="0">
+        <v>80</v>
+      </c>
+      <c r="N252" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="0">
+        <v>5</v>
+      </c>
+      <c r="B253" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="C253" s="1">
+        <v>44997</v>
+      </c>
+      <c r="D253" s="0">
+        <v>404</v>
+      </c>
+      <c r="E253" s="0" t="s">
+        <v>701</v>
+      </c>
+      <c r="F253" s="1">
+        <v>0.22569444444444445</v>
+      </c>
+      <c r="G253" s="1">
+        <v>0.30833333333333335</v>
+      </c>
+      <c r="H253" s="0">
+        <v>124</v>
+      </c>
+      <c r="I253" s="0" t="s">
+        <v>965</v>
+      </c>
+      <c r="J253" s="0">
+        <v>172.40000000000001</v>
+      </c>
+      <c r="K253" s="0">
+        <v>7926.1999999999998</v>
+      </c>
+      <c r="L253" s="0">
+        <v>1</v>
+      </c>
+      <c r="M253" s="0">
+        <v>80</v>
+      </c>
+      <c r="N253" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="0">
+        <v>5</v>
+      </c>
+      <c r="B254" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="C254" s="1">
+        <v>44997</v>
+      </c>
+      <c r="D254" s="0">
+        <v>35</v>
+      </c>
+      <c r="E254" s="0" t="s">
+        <v>702</v>
+      </c>
+      <c r="F254" s="1">
+        <v>0.39444444444444443</v>
+      </c>
+      <c r="G254" s="1">
+        <v>0.40347222222222223</v>
+      </c>
+      <c r="H254" s="0">
+        <v>15</v>
+      </c>
+      <c r="I254" s="0" t="s">
+        <v>966</v>
+      </c>
+      <c r="J254" s="0">
+        <v>11.800000000000001</v>
+      </c>
+      <c r="K254" s="0">
+        <v>7938</v>
+      </c>
+      <c r="L254" s="0">
+        <v>1</v>
+      </c>
+      <c r="M254" s="0">
+        <v>80</v>
+      </c>
+      <c r="N254" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="0">
+        <v>5</v>
+      </c>
+      <c r="B255" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="C255" s="1">
+        <v>44997</v>
+      </c>
+      <c r="D255" s="0">
+        <v>35</v>
+      </c>
+      <c r="E255" s="0" t="s">
+        <v>703</v>
+      </c>
+      <c r="F255" s="1">
+        <v>0.41388888888888886</v>
+      </c>
+      <c r="G255" s="1">
+        <v>0.48472222222222222</v>
+      </c>
+      <c r="H255" s="0">
+        <v>12</v>
+      </c>
+      <c r="I255" s="0" t="s">
+        <v>967</v>
+      </c>
+      <c r="J255" s="0">
+        <v>218.5</v>
+      </c>
+      <c r="K255" s="0">
+        <v>8156.5</v>
+      </c>
+      <c r="L255" s="0">
+        <v>1</v>
+      </c>
+      <c r="M255" s="0">
+        <v>80</v>
+      </c>
+      <c r="N255" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="0">
+        <v>5</v>
+      </c>
+      <c r="B256" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="C256" s="1">
+        <v>44997</v>
+      </c>
+      <c r="D256" s="0">
+        <v>935</v>
+      </c>
+      <c r="E256" s="0" t="s">
+        <v>704</v>
+      </c>
+      <c r="F256" s="1">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="G256" s="1">
+        <v>0.55694444444444446</v>
+      </c>
+      <c r="H256" s="0">
+        <v>13</v>
+      </c>
+      <c r="I256" s="0" t="s">
+        <v>968</v>
+      </c>
+      <c r="J256" s="0">
+        <v>136.5</v>
+      </c>
+      <c r="K256" s="0">
+        <v>8293</v>
+      </c>
+      <c r="L256" s="0">
+        <v>1</v>
+      </c>
+      <c r="M256" s="0">
+        <v>80</v>
+      </c>
+      <c r="N256" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="0">
+        <v>5</v>
+      </c>
+      <c r="B257" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="C257" s="1">
+        <v>44997</v>
+      </c>
+      <c r="D257" s="0">
+        <v>946</v>
+      </c>
+      <c r="E257" s="0" t="s">
+        <v>705</v>
+      </c>
+      <c r="F257" s="1">
+        <v>0.56597222222222221</v>
+      </c>
+      <c r="G257" s="1">
+        <v>0.62986111111111109</v>
+      </c>
+      <c r="H257" s="0">
+        <v>16</v>
+      </c>
+      <c r="I257" s="0" t="s">
+        <v>969</v>
+      </c>
+      <c r="J257" s="0">
+        <v>136.5</v>
+      </c>
+      <c r="K257" s="0">
+        <v>8429.5</v>
+      </c>
+      <c r="L257" s="0">
+        <v>1</v>
+      </c>
+      <c r="M257" s="0">
+        <v>80</v>
+      </c>
+      <c r="N257" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="0">
+        <v>5</v>
+      </c>
+      <c r="B258" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="C258" s="1">
+        <v>44997</v>
+      </c>
+      <c r="D258" s="0">
+        <v>46</v>
+      </c>
+      <c r="E258" s="0" t="s">
+        <v>706</v>
+      </c>
+      <c r="F258" s="1">
+        <v>0.64097222222222228</v>
+      </c>
+      <c r="G258" s="1">
+        <v>0.7104166666666667</v>
+      </c>
+      <c r="H258" s="0">
+        <v>9</v>
+      </c>
+      <c r="I258" s="0" t="s">
+        <v>970</v>
+      </c>
+      <c r="J258" s="0">
+        <v>218.69999999999999</v>
+      </c>
+      <c r="K258" s="0">
+        <v>8648.2000000000007</v>
+      </c>
+      <c r="L258" s="0">
+        <v>1</v>
+      </c>
+      <c r="M258" s="0">
+        <v>80</v>
+      </c>
+      <c r="N258" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="0">
+        <v>5</v>
+      </c>
+      <c r="B259" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="C259" s="1">
+        <v>44997</v>
+      </c>
+      <c r="D259" s="0">
+        <v>46</v>
+      </c>
+      <c r="E259" s="0" t="s">
+        <v>707</v>
+      </c>
+      <c r="F259" s="1">
+        <v>0.71666666666666667</v>
+      </c>
+      <c r="G259" s="1">
+        <v>0.72569444444444442</v>
+      </c>
+      <c r="H259" s="0">
+        <v>123</v>
+      </c>
+      <c r="I259" s="0" t="s">
+        <v>971</v>
+      </c>
+      <c r="J259" s="0">
+        <v>11.800000000000001</v>
+      </c>
+      <c r="K259" s="0">
+        <v>8660</v>
+      </c>
+      <c r="L259" s="0">
+        <v>1</v>
+      </c>
+      <c r="M259" s="0">
+        <v>80</v>
+      </c>
+      <c r="N259" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="0">
+        <v>5</v>
+      </c>
+      <c r="B260" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="C260" s="1">
+        <v>44997</v>
+      </c>
+      <c r="D260" s="0">
+        <v>75</v>
+      </c>
+      <c r="E260" s="0" t="s">
+        <v>708</v>
+      </c>
+      <c r="F260" s="1">
+        <v>0.81111111111111112</v>
+      </c>
+      <c r="G260" s="1">
+        <v>0.82013888888888886</v>
+      </c>
+      <c r="H260" s="0">
+        <v>15</v>
+      </c>
+      <c r="I260" s="0" t="s">
+        <v>972</v>
+      </c>
+      <c r="J260" s="0">
+        <v>11.800000000000001</v>
+      </c>
+      <c r="K260" s="0">
+        <v>8671.7999999999993</v>
+      </c>
+      <c r="L260" s="0">
+        <v>1</v>
+      </c>
+      <c r="M260" s="0">
+        <v>80</v>
+      </c>
+      <c r="N260" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="0">
+        <v>5</v>
+      </c>
+      <c r="B261" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="C261" s="1">
+        <v>44997</v>
+      </c>
+      <c r="D261" s="0">
+        <v>75</v>
+      </c>
+      <c r="E261" s="0" t="s">
+        <v>709</v>
+      </c>
+      <c r="F261" s="1">
+        <v>0.8305555555555556</v>
+      </c>
+      <c r="G261" s="1">
+        <v>0.90138888888888891</v>
+      </c>
+      <c r="H261" s="0">
+        <v>12</v>
+      </c>
+      <c r="I261" s="0" t="s">
+        <v>973</v>
+      </c>
+      <c r="J261" s="0">
+        <v>218.5</v>
+      </c>
+      <c r="K261" s="0">
+        <v>8890.2999999999993</v>
+      </c>
+      <c r="L261" s="0">
+        <v>1</v>
+      </c>
+      <c r="M261" s="0">
+        <v>80</v>
+      </c>
+      <c r="N261" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="0">
+        <v>5</v>
+      </c>
+      <c r="B262" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="C262" s="1">
+        <v>44997</v>
+      </c>
+      <c r="D262" s="0">
+        <v>975</v>
+      </c>
+      <c r="E262" s="0" t="s">
+        <v>710</v>
+      </c>
+      <c r="F262" s="1">
+        <v>0.90972222222222221</v>
+      </c>
+      <c r="G262" s="1">
+        <v>0.97361111111111109</v>
+      </c>
+      <c r="H262" s="0">
+        <v>0</v>
+      </c>
+      <c r="I262" s="0" t="s">
+        <v>974</v>
+      </c>
+      <c r="J262" s="0">
+        <v>136.5</v>
+      </c>
+      <c r="K262" s="0">
+        <v>9026.7999999999993</v>
+      </c>
+      <c r="L262" s="0">
+        <v>1</v>
+      </c>
+      <c r="M262" s="0">
+        <v>80</v>
+      </c>
+      <c r="N262" s="0">
         <v>20</v>
       </c>
     </row>
